--- a/TSLA/Financial Model - TSLA (16-11-2023).xlsx
+++ b/TSLA/Financial Model - TSLA (16-11-2023).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buzz5\OneDrive\Desktop\FModels\TSLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F670950-164C-45DD-9E7B-3F6EB7EC425D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C982FF4-ED03-457F-8603-F1AD0FA4BA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{202AD4CF-E04B-41A8-9590-EEF3C55E0872}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
   <si>
     <t>All $ are in USD</t>
   </si>
@@ -369,7 +369,28 @@
     <t>Discount Rate</t>
   </si>
   <si>
-    <t>Information:</t>
+    <t>Total Growth</t>
+  </si>
+  <si>
+    <t>Model 3/Y Growth</t>
+  </si>
+  <si>
+    <t>Model S/X Growth</t>
+  </si>
+  <si>
+    <t>Market Analysis</t>
+  </si>
+  <si>
+    <t>My Analysis</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Net Income (Market)</t>
+  </si>
+  <si>
+    <t>Net Income Growth</t>
   </si>
 </sst>
 </file>
@@ -451,7 +472,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -484,13 +505,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -843,7 +881,7 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="s">
@@ -939,7 +977,7 @@
         <v>22</v>
       </c>
       <c r="D10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>23</v>
@@ -982,7 +1020,7 @@
       </c>
       <c r="D12" s="4">
         <f>D10*D11</f>
-        <v>739540710811</v>
+        <v>742714705278</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1034,7 +1072,7 @@
       </c>
       <c r="D15" s="4">
         <f>D12+D13-D14</f>
-        <v>756730710811</v>
+        <v>759904705278</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1102,7 +1140,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1116,34 +1154,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58D3F0D-EB14-4C57-869F-DB6E8AF4428C}">
-  <dimension ref="A1:BH49"/>
+  <dimension ref="A1:EP53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="1.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="9.7109375" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" customWidth="1"/>
     <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="50" width="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="86" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
@@ -1227,12 +1273,13 @@
       </c>
       <c r="X3" s="10"/>
       <c r="Y3" s="19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
+      <c r="AB3" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="17">
@@ -1365,7 +1412,7 @@
         <v>5353</v>
       </c>
       <c r="G4" s="2">
-        <f>AM4-(F4+E4+D4)</f>
+        <f t="shared" ref="G4:G19" si="3">AM4-(F4+E4+D4)</f>
         <v>6367.75</v>
       </c>
       <c r="H4" s="2">
@@ -1380,7 +1427,7 @@
         <v>7611</v>
       </c>
       <c r="K4" s="2">
-        <f>AN4-(J4+I4+H4)</f>
+        <f t="shared" ref="K4:K19" si="4">AN4-(J4+I4+H4)</f>
         <v>9314</v>
       </c>
       <c r="L4" s="2">
@@ -1395,7 +1442,7 @@
         <v>12057</v>
       </c>
       <c r="O4" s="2">
-        <f>AO4-(N4+M4+L4)</f>
+        <f t="shared" ref="O4:O19" si="5">AO4-(N4+M4+L4)</f>
         <v>15967</v>
       </c>
       <c r="P4" s="2">
@@ -1411,7 +1458,7 @@
         <v>18692</v>
       </c>
       <c r="S4" s="2">
-        <f>AP4-(R4+Q4+P4)</f>
+        <f t="shared" ref="S4:S19" si="6">AP4-(R4+Q4+P4)</f>
         <v>21307</v>
       </c>
       <c r="T4" s="2">
@@ -1426,11 +1473,11 @@
         <v>75</v>
       </c>
       <c r="Z4" s="12">
-        <v>0.03</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="12"/>
       <c r="AD4" s="16"/>
       <c r="AE4" t="s">
         <v>74</v>
@@ -1510,7 +1557,7 @@
         <v>950</v>
       </c>
       <c r="G5" s="2">
-        <f>AM5-(F5+E5+D5)</f>
+        <f t="shared" si="3"/>
         <v>1016.1099999999997</v>
       </c>
       <c r="H5" s="2">
@@ -1526,7 +1573,7 @@
         <v>1160</v>
       </c>
       <c r="K5" s="2">
-        <f>AN5-(J5+I5+H5)</f>
+        <f t="shared" si="4"/>
         <v>1430</v>
       </c>
       <c r="L5" s="2">
@@ -1542,7 +1589,7 @@
         <v>1700</v>
       </c>
       <c r="O5" s="2">
-        <f>AO5-(N5+M5+L5)</f>
+        <f t="shared" si="5"/>
         <v>1752</v>
       </c>
       <c r="P5" s="2">
@@ -1558,7 +1605,7 @@
         <v>2762</v>
       </c>
       <c r="S5" s="2">
-        <f>AP5-(R5+Q5+P5)</f>
+        <f t="shared" si="6"/>
         <v>3011</v>
       </c>
       <c r="T5" s="2">
@@ -1574,11 +1621,11 @@
         <v>109</v>
       </c>
       <c r="Z5" s="12">
-        <v>6.5000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="12"/>
       <c r="AD5" s="16"/>
       <c r="AE5" t="s">
         <v>76</v>
@@ -1650,7 +1697,7 @@
         <v>4541.4639999999999</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6" si="3">E4+E5</f>
+        <f t="shared" ref="E6" si="7">E4+E5</f>
         <v>6349.6760000000004</v>
       </c>
       <c r="F6" s="2">
@@ -1658,114 +1705,120 @@
         <v>6303</v>
       </c>
       <c r="G6" s="2">
-        <f>AM6-(F6+E6+D6)</f>
+        <f t="shared" si="3"/>
         <v>7383.8600000000006</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:U6" si="4">H4+H5</f>
+        <f t="shared" ref="H6:U6" si="8">H4+H5</f>
         <v>5985</v>
       </c>
       <c r="I6" s="2">
+        <f t="shared" si="8"/>
+        <v>6036</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="8"/>
+        <v>8771</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="4"/>
-        <v>6036</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="4"/>
-        <v>8771</v>
-      </c>
-      <c r="K6" s="2">
-        <f>AN6-(J6+I6+H6)</f>
         <v>10744</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10389</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11958</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13757</v>
       </c>
       <c r="O6" s="2">
-        <f>AO6-(N6+M6+L6)</f>
+        <f t="shared" si="5"/>
         <v>17719</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>18756</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16934</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>21454</v>
       </c>
       <c r="S6" s="2">
-        <f>AP6-(R6+Q6+P6)</f>
+        <f t="shared" si="6"/>
         <v>24318</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>23329</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>24927</v>
       </c>
       <c r="X6" s="5"/>
       <c r="Y6" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="Z6" s="2">
+        <f>NPV(Z5,AF19:EP19)</f>
+        <v>144577.11147358507</v>
+      </c>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="15"/>
       <c r="AE6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AF6" s="2">
-        <f t="shared" ref="AF6:AK6" si="5">AF4+AF5</f>
+      <c r="AF6" s="15">
+        <f>AF4+AF5</f>
         <v>413.25600000000003</v>
       </c>
-      <c r="AG6" s="2">
-        <f t="shared" si="5"/>
+      <c r="AG6" s="15">
+        <f t="shared" ref="AG6:AP6" si="9">AG4+AG5</f>
         <v>2012.9560000000001</v>
       </c>
-      <c r="AH6" s="2">
-        <f t="shared" si="5"/>
+      <c r="AH6" s="15">
+        <f t="shared" si="9"/>
         <v>3198.3559999999998</v>
       </c>
-      <c r="AI6" s="2">
-        <f t="shared" si="5"/>
+      <c r="AI6" s="15">
+        <f t="shared" si="9"/>
         <v>3740.973</v>
       </c>
-      <c r="AJ6" s="2">
-        <f t="shared" si="5"/>
+      <c r="AJ6" s="15">
+        <f t="shared" si="9"/>
         <v>6350.7659999999996</v>
       </c>
-      <c r="AK6" s="2">
-        <f t="shared" si="5"/>
+      <c r="AK6" s="15">
+        <f t="shared" si="9"/>
         <v>9641.3000000000011</v>
       </c>
-      <c r="AL6" s="2">
-        <f>AL4+AL5</f>
+      <c r="AL6" s="15">
+        <f t="shared" si="9"/>
         <v>21461.268</v>
       </c>
-      <c r="AM6" s="2">
-        <f>AM4+AM5</f>
+      <c r="AM6" s="15">
+        <f t="shared" si="9"/>
         <v>24578</v>
       </c>
-      <c r="AN6" s="2">
-        <f>AN4+AN5</f>
+      <c r="AN6" s="15">
+        <f t="shared" si="9"/>
         <v>31536</v>
       </c>
-      <c r="AO6" s="2">
-        <f>AO4+AO5</f>
+      <c r="AO6" s="15">
+        <f t="shared" si="9"/>
         <v>53823</v>
       </c>
-      <c r="AP6" s="2">
-        <f>AP4+AP5</f>
+      <c r="AP6" s="15">
+        <f t="shared" si="9"/>
         <v>81462</v>
       </c>
       <c r="AQ6" s="2"/>
@@ -1799,7 +1852,7 @@
         <v>4131</v>
       </c>
       <c r="G7" s="2">
-        <f>AM7-(F7+E7+D7)</f>
+        <f t="shared" si="3"/>
         <v>5039.9360000000015</v>
       </c>
       <c r="H7" s="2">
@@ -1815,7 +1868,7 @@
         <v>5506</v>
       </c>
       <c r="K7" s="2">
-        <f>AN7-(J7+I7+H7)</f>
+        <f t="shared" si="4"/>
         <v>7070</v>
       </c>
       <c r="L7" s="2">
@@ -1831,7 +1884,7 @@
         <v>8384</v>
       </c>
       <c r="O7" s="2">
-        <f>AO7-(N7+M7+L7)</f>
+        <f t="shared" si="5"/>
         <v>11085</v>
       </c>
       <c r="P7" s="2">
@@ -1847,7 +1900,7 @@
         <v>13480</v>
       </c>
       <c r="S7" s="2">
-        <f>AP7-(R7+Q7+P7)</f>
+        <f t="shared" si="6"/>
         <v>15785</v>
       </c>
       <c r="T7" s="2">
@@ -1860,12 +1913,15 @@
       </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z7" s="16"/>
+        <v>115</v>
+      </c>
+      <c r="Z7" s="2">
+        <f>Main!D13/1000</f>
+        <v>23000000</v>
+      </c>
       <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="2"/>
       <c r="AD7" s="16"/>
       <c r="AE7" t="s">
         <v>79</v>
@@ -1945,7 +2001,7 @@
         <v>981</v>
       </c>
       <c r="G8" s="2">
-        <f>AM8-(F8+E8+D8)</f>
+        <f t="shared" si="3"/>
         <v>1059.0349999999999</v>
       </c>
       <c r="H8" s="2">
@@ -1961,7 +2017,7 @@
         <v>1202</v>
       </c>
       <c r="K8" s="2">
-        <f>AN8-(J8+I8+H8)</f>
+        <f t="shared" si="4"/>
         <v>1608</v>
       </c>
       <c r="L8" s="2">
@@ -1977,7 +2033,7 @@
         <v>1713</v>
       </c>
       <c r="O8" s="2">
-        <f>AO8-(N8+M8+L8)</f>
+        <f t="shared" si="5"/>
         <v>1787</v>
       </c>
       <c r="P8" s="2">
@@ -1993,7 +2049,7 @@
         <v>2592</v>
       </c>
       <c r="S8" s="2">
-        <f>AP8-(R8+Q8+P8)</f>
+        <f t="shared" si="6"/>
         <v>2756</v>
       </c>
       <c r="T8" s="2">
@@ -2005,7 +2061,15 @@
         <v>3215</v>
       </c>
       <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
+      <c r="Y8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z8" s="2">
+        <f>Z6+Z7</f>
+        <v>23144577.111473586</v>
+      </c>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="15"/>
       <c r="AE8" t="s">
         <v>80</v>
       </c>
@@ -2076,122 +2140,122 @@
         <v>3975.721</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:F9" si="6">E7+E8</f>
+        <f t="shared" ref="E9:F9" si="10">E7+E8</f>
         <v>5322.308</v>
       </c>
       <c r="F9" s="2">
+        <f t="shared" si="10"/>
+        <v>5112</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
+        <v>6098.9709999999995</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ref="H9" si="11">H7+H8</f>
+        <v>4751</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" ref="I9" si="12">I7+I8</f>
+        <v>4769</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" ref="J9" si="13">J7+J8</f>
+        <v>6708</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="4"/>
+        <v>8678</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" ref="L9" si="14">L7+L8</f>
+        <v>8174</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" ref="M9" si="15">M7+M8</f>
+        <v>9074</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" ref="N9" si="16">N7+N8</f>
+        <v>10097</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="5"/>
+        <v>12872</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" ref="P9" si="17">P7+P8</f>
+        <v>13296</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" ref="Q9" si="18">Q7+Q8</f>
+        <v>12700</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" ref="R9" si="19">R7+R8</f>
+        <v>16072</v>
+      </c>
+      <c r="S9" s="2">
         <f t="shared" si="6"/>
-        <v>5112</v>
-      </c>
-      <c r="G9" s="2">
-        <f>AM9-(F9+E9+D9)</f>
-        <v>6098.9709999999995</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" ref="H9" si="7">H7+H8</f>
-        <v>4751</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" ref="I9" si="8">I7+I8</f>
-        <v>4769</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" ref="J9" si="9">J7+J8</f>
-        <v>6708</v>
-      </c>
-      <c r="K9" s="2">
-        <f>AN9-(J9+I9+H9)</f>
-        <v>8678</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" ref="L9" si="10">L7+L8</f>
-        <v>8174</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" ref="M9" si="11">M7+M8</f>
-        <v>9074</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" ref="N9" si="12">N7+N8</f>
-        <v>10097</v>
-      </c>
-      <c r="O9" s="2">
-        <f>AO9-(N9+M9+L9)</f>
-        <v>12872</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" ref="P9" si="13">P7+P8</f>
-        <v>13296</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" ref="Q9" si="14">Q7+Q8</f>
-        <v>12700</v>
-      </c>
-      <c r="R9" s="2">
-        <f t="shared" ref="R9" si="15">R7+R8</f>
-        <v>16072</v>
-      </c>
-      <c r="S9" s="2">
-        <f>AP9-(R9+Q9+P9)</f>
         <v>18541</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" ref="T9" si="16">T7+T8</f>
+        <f t="shared" ref="T9" si="20">T7+T8</f>
         <v>18818</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" ref="U9" si="17">U7+U8</f>
+        <f t="shared" ref="U9" si="21">U7+U8</f>
         <v>20394</v>
       </c>
       <c r="X9" s="5"/>
-      <c r="Y9" s="5" t="s">
-        <v>107</v>
-      </c>
+      <c r="Y9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
       <c r="AE9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AF9" s="2">
-        <f t="shared" ref="AF9:AK9" si="18">AF7+AF8</f>
+      <c r="AF9" s="15">
+        <f>AF7+AF8</f>
         <v>383.18900000000002</v>
       </c>
-      <c r="AG9" s="2">
-        <f t="shared" si="18"/>
+      <c r="AG9" s="15">
+        <f t="shared" ref="AG9:AP9" si="22">AG7+AG8</f>
         <v>1557.2339999999999</v>
       </c>
-      <c r="AH9" s="2">
-        <f t="shared" si="18"/>
+      <c r="AH9" s="15">
+        <f t="shared" si="22"/>
         <v>2316.6849999999999</v>
       </c>
-      <c r="AI9" s="2">
-        <f t="shared" si="18"/>
+      <c r="AI9" s="15">
+        <f t="shared" si="22"/>
         <v>305.05199999999996</v>
       </c>
-      <c r="AJ9" s="2">
-        <f t="shared" si="18"/>
+      <c r="AJ9" s="15">
+        <f t="shared" si="22"/>
         <v>649.36699999999996</v>
       </c>
-      <c r="AK9" s="2">
-        <f t="shared" si="18"/>
+      <c r="AK9" s="15">
+        <f t="shared" si="22"/>
         <v>2117.451</v>
       </c>
-      <c r="AL9" s="2">
-        <f>AL7+AL8</f>
+      <c r="AL9" s="15">
+        <f t="shared" si="22"/>
         <v>17419.246999999999</v>
       </c>
-      <c r="AM9" s="2">
-        <f>AM7+AM8</f>
+      <c r="AM9" s="15">
+        <f t="shared" si="22"/>
         <v>20509</v>
       </c>
-      <c r="AN9" s="2">
-        <f>AN7+AN8</f>
+      <c r="AN9" s="15">
+        <f t="shared" si="22"/>
         <v>24906</v>
       </c>
-      <c r="AO9" s="2">
-        <f>AO7+AO8</f>
+      <c r="AO9" s="15">
+        <f t="shared" si="22"/>
         <v>40217</v>
       </c>
-      <c r="AP9" s="2">
-        <f>AP7+AP8</f>
+      <c r="AP9" s="15">
+        <f t="shared" si="22"/>
         <v>60609</v>
       </c>
       <c r="AQ9" s="2"/>
@@ -2221,122 +2285,124 @@
         <v>1027.3680000000004</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ref="F10" si="19">F6-F9</f>
+        <f t="shared" ref="F10" si="23">F6-F9</f>
         <v>1191</v>
       </c>
       <c r="G10" s="2">
-        <f>AM10-(F10+E10+D10)</f>
+        <f t="shared" si="3"/>
         <v>1284.8889999999997</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" ref="H10" si="20">H6-H9</f>
+        <f t="shared" ref="H10" si="24">H6-H9</f>
         <v>1234</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" ref="I10" si="21">I6-I9</f>
+        <f t="shared" ref="I10" si="25">I6-I9</f>
         <v>1267</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" ref="J10" si="22">J6-J9</f>
+        <f t="shared" ref="J10" si="26">J6-J9</f>
         <v>2063</v>
       </c>
       <c r="K10" s="2">
-        <f>AN10-(J10+I10+H10)</f>
+        <f t="shared" si="4"/>
         <v>2066</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" ref="L10" si="23">L6-L9</f>
+        <f t="shared" ref="L10" si="27">L6-L9</f>
         <v>2215</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" ref="M10" si="24">M6-M9</f>
+        <f t="shared" ref="M10" si="28">M6-M9</f>
         <v>2884</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" ref="N10" si="25">N6-N9</f>
+        <f t="shared" ref="N10" si="29">N6-N9</f>
         <v>3660</v>
       </c>
       <c r="O10" s="2">
-        <f>AO10-(N10+M10+L10)</f>
+        <f t="shared" si="5"/>
         <v>4847</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" ref="P10" si="26">P6-P9</f>
+        <f t="shared" ref="P10" si="30">P6-P9</f>
         <v>5460</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" ref="Q10" si="27">Q6-Q9</f>
+        <f t="shared" ref="Q10" si="31">Q6-Q9</f>
         <v>4234</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" ref="R10" si="28">R6-R9</f>
+        <f t="shared" ref="R10" si="32">R6-R9</f>
         <v>5382</v>
       </c>
       <c r="S10" s="2">
-        <f>AP10-(R10+Q10+P10)</f>
+        <f t="shared" si="6"/>
         <v>5777</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" ref="T10" si="29">T6-T9</f>
+        <f t="shared" ref="T10" si="33">T6-T9</f>
         <v>4511</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" ref="U10" si="30">U6-U9</f>
+        <f t="shared" ref="U10" si="34">U6-U9</f>
         <v>4533</v>
       </c>
       <c r="X10" s="5"/>
       <c r="Y10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z10">
-        <f>Main!D10</f>
-        <v>233</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Z10" s="22">
+        <f>Main!D11/Z8</f>
+        <v>137.13771704329557</v>
+      </c>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
       <c r="AE10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AF10" s="2">
-        <f t="shared" ref="AF10:AK10" si="31">AF6-AF9</f>
+      <c r="AF10" s="15">
+        <f>AF6-AF9</f>
         <v>30.067000000000007</v>
       </c>
-      <c r="AG10" s="2">
-        <f t="shared" si="31"/>
+      <c r="AG10" s="15">
+        <f t="shared" ref="AG10:AP10" si="35">AG6-AG9</f>
         <v>455.72200000000021</v>
       </c>
-      <c r="AH10" s="2">
-        <f t="shared" si="31"/>
+      <c r="AH10" s="15">
+        <f t="shared" si="35"/>
         <v>881.67099999999982</v>
       </c>
-      <c r="AI10" s="2">
-        <f t="shared" si="31"/>
+      <c r="AI10" s="15">
+        <f t="shared" si="35"/>
         <v>3435.9209999999998</v>
       </c>
-      <c r="AJ10" s="2">
-        <f t="shared" si="31"/>
+      <c r="AJ10" s="15">
+        <f t="shared" si="35"/>
         <v>5701.3989999999994</v>
       </c>
-      <c r="AK10" s="2">
-        <f t="shared" si="31"/>
+      <c r="AK10" s="15">
+        <f t="shared" si="35"/>
         <v>7523.8490000000011</v>
       </c>
-      <c r="AL10" s="2">
-        <f>AL6-AL9</f>
+      <c r="AL10" s="15">
+        <f t="shared" si="35"/>
         <v>4042.0210000000006</v>
       </c>
-      <c r="AM10" s="2">
-        <f>AM6-AM9</f>
+      <c r="AM10" s="15">
+        <f t="shared" si="35"/>
         <v>4069</v>
       </c>
-      <c r="AN10" s="2">
-        <f>AN6-AN9</f>
+      <c r="AN10" s="15">
+        <f t="shared" si="35"/>
         <v>6630</v>
       </c>
-      <c r="AO10" s="2">
-        <f>AO6-AO9</f>
+      <c r="AO10" s="15">
+        <f t="shared" si="35"/>
         <v>13606</v>
       </c>
-      <c r="AP10" s="2">
-        <f>AP6-AP9</f>
+      <c r="AP10" s="15">
+        <f t="shared" si="35"/>
         <v>20853</v>
       </c>
       <c r="AQ10" s="2"/>
@@ -2370,7 +2436,7 @@
         <v>334</v>
       </c>
       <c r="G11" s="2">
-        <f>AM11-(F11+E11+D11)</f>
+        <f t="shared" si="3"/>
         <v>344.92799999999988</v>
       </c>
       <c r="H11" s="2">
@@ -2386,7 +2452,7 @@
         <v>366</v>
       </c>
       <c r="K11" s="2">
-        <f>AN11-(J11+I11+H11)</f>
+        <f t="shared" si="4"/>
         <v>467</v>
       </c>
       <c r="L11" s="2">
@@ -2402,7 +2468,7 @@
         <v>611</v>
       </c>
       <c r="O11" s="2">
-        <f>AO11-(N11+M11+L11)</f>
+        <f t="shared" si="5"/>
         <v>740</v>
       </c>
       <c r="P11" s="2">
@@ -2418,7 +2484,7 @@
         <v>733</v>
       </c>
       <c r="S11" s="2">
-        <f>AP11-(R11+Q11+P11)</f>
+        <f t="shared" si="6"/>
         <v>810</v>
       </c>
       <c r="T11" s="2">
@@ -2431,7 +2497,16 @@
       </c>
       <c r="X11" s="5"/>
       <c r="Y11" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="Z11">
+        <f>Main!D10</f>
+        <v>234</v>
+      </c>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="21">
+        <f>Z11</f>
+        <v>234</v>
       </c>
       <c r="AE11" t="s">
         <v>83</v>
@@ -2511,7 +2586,7 @@
         <v>596</v>
       </c>
       <c r="G12" s="2">
-        <f>AM12-(F12+E12+D12)</f>
+        <f t="shared" si="3"/>
         <v>698.81</v>
       </c>
       <c r="H12" s="2">
@@ -2527,7 +2602,7 @@
         <v>888</v>
       </c>
       <c r="K12" s="2">
-        <f>AN12-(J12+I12+H12)</f>
+        <f t="shared" si="4"/>
         <v>1034</v>
       </c>
       <c r="L12" s="2">
@@ -2543,7 +2618,7 @@
         <v>994</v>
       </c>
       <c r="O12" s="2">
-        <f>AO12-(N12+M12+L12)</f>
+        <f t="shared" si="5"/>
         <v>1494</v>
       </c>
       <c r="P12" s="2">
@@ -2559,7 +2634,7 @@
         <v>961</v>
       </c>
       <c r="S12" s="2">
-        <f>AP12-(R12+Q12+P12)</f>
+        <f t="shared" si="6"/>
         <v>890</v>
       </c>
       <c r="T12" s="2">
@@ -2570,6 +2645,15 @@
         <f>1191</f>
         <v>1191</v>
       </c>
+      <c r="Y12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z12" s="12">
+        <f>Z11/Z10-1</f>
+        <v>0.70631395246374251</v>
+      </c>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="15"/>
       <c r="AE12" t="s">
         <v>84</v>
       </c>
@@ -2644,19 +2728,19 @@
         <v>971.15899999999999</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ref="F13" si="32">F11+F12</f>
+        <f t="shared" ref="F13" si="36">F11+F12</f>
         <v>930</v>
       </c>
       <c r="G13" s="2">
-        <f>AM13-(F13+E13+D13)</f>
+        <f t="shared" si="3"/>
         <v>1043.7379999999998</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" ref="H13" si="33">H11+H12</f>
+        <f t="shared" ref="H13" si="37">H11+H12</f>
         <v>951</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" ref="I13" si="34">I11+I12</f>
+        <f t="shared" ref="I13" si="38">I11+I12</f>
         <v>930</v>
       </c>
       <c r="J13" s="2">
@@ -2664,94 +2748,96 @@
         <v>1254</v>
       </c>
       <c r="K13" s="2">
-        <f>AN13-(J13+I13+H13)</f>
+        <f t="shared" si="4"/>
         <v>1501</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" ref="L13" si="35">L11+L12</f>
+        <f t="shared" ref="L13" si="39">L11+L12</f>
         <v>1722</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" ref="M13" si="36">M11+M12</f>
+        <f t="shared" ref="M13" si="40">M11+M12</f>
         <v>1549</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" ref="N13" si="37">N11+N12</f>
+        <f t="shared" ref="N13" si="41">N11+N12</f>
         <v>1605</v>
       </c>
       <c r="O13" s="2">
-        <f>AO13-(N13+M13+L13)</f>
+        <f t="shared" si="5"/>
         <v>2234</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" ref="P13" si="38">P11+P12</f>
+        <f t="shared" ref="P13" si="42">P11+P12</f>
         <v>1857</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" ref="Q13" si="39">Q11+Q12</f>
+        <f t="shared" ref="Q13" si="43">Q11+Q12</f>
         <v>1770</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" ref="R13" si="40">R11+R12</f>
+        <f t="shared" ref="R13" si="44">R11+R12</f>
         <v>1694</v>
       </c>
       <c r="S13" s="2">
-        <f>AP13-(R13+Q13+P13)</f>
+        <f t="shared" si="6"/>
         <v>1700</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" ref="T13" si="41">T11+T12</f>
+        <f t="shared" ref="T13" si="45">T11+T12</f>
         <v>1847</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" ref="U13" si="42">U11+U12</f>
+        <f t="shared" ref="U13" si="46">U11+U12</f>
         <v>2134</v>
       </c>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="12"/>
       <c r="AE13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AF13" s="2">
-        <f t="shared" ref="AF13:AK13" si="43">AF11+AF12</f>
+      <c r="AF13" s="15">
+        <f>AF11+AF12</f>
         <v>424.35</v>
       </c>
-      <c r="AG13" s="2">
-        <f t="shared" si="43"/>
+      <c r="AG13" s="15">
+        <f t="shared" ref="AG13:AP13" si="47">AG11+AG12</f>
         <v>517.54500000000007</v>
       </c>
-      <c r="AH13" s="2">
-        <f t="shared" si="43"/>
+      <c r="AH13" s="15">
+        <f t="shared" si="47"/>
         <v>1068.3599999999999</v>
       </c>
-      <c r="AI13" s="2">
-        <f t="shared" si="43"/>
+      <c r="AI13" s="15">
+        <f t="shared" si="47"/>
         <v>1640.1320000000001</v>
       </c>
-      <c r="AJ13" s="2">
-        <f t="shared" si="43"/>
+      <c r="AJ13" s="15">
+        <f t="shared" si="47"/>
         <v>2266.5970000000002</v>
       </c>
-      <c r="AK13" s="2">
-        <f t="shared" si="43"/>
+      <c r="AK13" s="15">
+        <f t="shared" si="47"/>
         <v>3854.5730000000003</v>
       </c>
-      <c r="AL13" s="2">
-        <f>AL11+AL12</f>
+      <c r="AL13" s="15">
+        <f t="shared" si="47"/>
         <v>29805.279999999999</v>
       </c>
-      <c r="AM13" s="2">
-        <f>AM11+AM12</f>
+      <c r="AM13" s="15">
+        <f t="shared" si="47"/>
         <v>3989</v>
       </c>
-      <c r="AN13" s="2">
-        <f>AN11+AN12</f>
+      <c r="AN13" s="15">
+        <f t="shared" si="47"/>
         <v>4636</v>
       </c>
-      <c r="AO13" s="2">
-        <f>AO11+AO12</f>
+      <c r="AO13" s="15">
+        <f t="shared" si="47"/>
         <v>7110</v>
       </c>
-      <c r="AP13" s="2">
-        <f>AP11+AP12</f>
+      <c r="AP13" s="15">
+        <f t="shared" si="47"/>
         <v>7021</v>
       </c>
       <c r="AQ13" s="2"/>
@@ -2781,11 +2867,11 @@
         <v>56.209000000000401</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" ref="F14" si="44">F10-F13</f>
+        <f t="shared" ref="F14" si="48">F10-F13</f>
         <v>261</v>
       </c>
       <c r="G14" s="2">
-        <f>AM14-(F14+E14+D14)</f>
+        <f t="shared" si="3"/>
         <v>241.15099999999973</v>
       </c>
       <c r="H14" s="2">
@@ -2801,7 +2887,7 @@
         <v>809</v>
       </c>
       <c r="K14" s="2">
-        <f>AN14-(J14+I14+H14)</f>
+        <f t="shared" si="4"/>
         <v>565</v>
       </c>
       <c r="L14" s="2">
@@ -2809,86 +2895,88 @@
         <v>493</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" ref="M14" si="45">M10-M13</f>
+        <f t="shared" ref="M14" si="49">M10-M13</f>
         <v>1335</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" ref="N14" si="46">N10-N13</f>
+        <f t="shared" ref="N14" si="50">N10-N13</f>
         <v>2055</v>
       </c>
       <c r="O14" s="2">
-        <f>AO14-(N14+M14+L14)</f>
+        <f t="shared" si="5"/>
         <v>2613</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" ref="P14" si="47">P10-P13</f>
+        <f t="shared" ref="P14" si="51">P10-P13</f>
         <v>3603</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" ref="Q14" si="48">Q10-Q13</f>
+        <f t="shared" ref="Q14" si="52">Q10-Q13</f>
         <v>2464</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" ref="R14" si="49">R10-R13</f>
+        <f t="shared" ref="R14" si="53">R10-R13</f>
         <v>3688</v>
       </c>
       <c r="S14" s="2">
-        <f>AP14-(R14+Q14+P14)</f>
+        <f t="shared" si="6"/>
         <v>4077</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" ref="T14" si="50">T10-T13</f>
+        <f t="shared" ref="T14" si="54">T10-T13</f>
         <v>2664</v>
       </c>
       <c r="U14" s="2">
         <f>U10-U13</f>
         <v>2399</v>
       </c>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="12"/>
       <c r="AE14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AF14" s="2">
-        <f t="shared" ref="AF14:AK14" si="51">AF10-AF13</f>
+      <c r="AF14" s="15">
+        <f>AF10-AF13</f>
         <v>-394.28300000000002</v>
       </c>
-      <c r="AG14" s="2">
-        <f t="shared" si="51"/>
+      <c r="AG14" s="15">
+        <f t="shared" ref="AG14:AP14" si="55">AG10-AG13</f>
         <v>-61.822999999999865</v>
       </c>
-      <c r="AH14" s="2">
-        <f t="shared" si="51"/>
+      <c r="AH14" s="15">
+        <f t="shared" si="55"/>
         <v>-186.68900000000008</v>
       </c>
-      <c r="AI14" s="2">
-        <f t="shared" si="51"/>
+      <c r="AI14" s="15">
+        <f t="shared" si="55"/>
         <v>1795.7889999999998</v>
       </c>
-      <c r="AJ14" s="2">
-        <f t="shared" si="51"/>
+      <c r="AJ14" s="15">
+        <f t="shared" si="55"/>
         <v>3434.8019999999992</v>
       </c>
-      <c r="AK14" s="2">
-        <f t="shared" si="51"/>
+      <c r="AK14" s="15">
+        <f t="shared" si="55"/>
         <v>3669.2760000000007</v>
       </c>
-      <c r="AL14" s="2">
-        <f>AL10-AL13</f>
+      <c r="AL14" s="15">
+        <f t="shared" si="55"/>
         <v>-25763.258999999998</v>
       </c>
-      <c r="AM14" s="2">
-        <f>AM10-AM13</f>
+      <c r="AM14" s="15">
+        <f t="shared" si="55"/>
         <v>80</v>
       </c>
-      <c r="AN14" s="2">
-        <f>AN10-AN13</f>
+      <c r="AN14" s="15">
+        <f t="shared" si="55"/>
         <v>1994</v>
       </c>
-      <c r="AO14" s="2">
-        <f>AO10-AO13</f>
+      <c r="AO14" s="15">
+        <f t="shared" si="55"/>
         <v>6496</v>
       </c>
-      <c r="AP14" s="2">
-        <f>AP10-AP13</f>
+      <c r="AP14" s="15">
+        <f t="shared" si="55"/>
         <v>13832</v>
       </c>
       <c r="AQ14" s="2"/>
@@ -2922,7 +3010,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="2">
-        <f>AM15-(F15+E15+D15)</f>
+        <f t="shared" si="3"/>
         <v>9.8759999999999977</v>
       </c>
       <c r="H15" s="2">
@@ -2938,7 +3026,7 @@
         <v>6</v>
       </c>
       <c r="K15" s="2">
-        <f>AN15-(J15+I15+H15)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="L15" s="2">
@@ -2954,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="O15" s="2">
-        <f>AO15-(N15+M15+L15)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="P15" s="2">
@@ -2970,7 +3058,7 @@
         <v>86</v>
       </c>
       <c r="S15" s="2">
-        <f>AP15-(R15+Q15+P15)</f>
+        <f t="shared" si="6"/>
         <v>157</v>
       </c>
       <c r="T15" s="2">
@@ -3059,7 +3147,7 @@
         <v>185</v>
       </c>
       <c r="G16" s="2">
-        <f>AM16-(F16+E16+D16)</f>
+        <f t="shared" si="3"/>
         <v>170.56799999999998</v>
       </c>
       <c r="H16" s="2">
@@ -3075,7 +3163,7 @@
         <v>163</v>
       </c>
       <c r="K16" s="2">
-        <f>AN16-(J16+I16+H16)</f>
+        <f t="shared" si="4"/>
         <v>246</v>
       </c>
       <c r="L16" s="2">
@@ -3091,7 +3179,7 @@
         <v>126</v>
       </c>
       <c r="O16" s="2">
-        <f>AO16-(N16+M16+L16)</f>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="P16" s="2">
@@ -3107,7 +3195,7 @@
         <v>53</v>
       </c>
       <c r="S16" s="2">
-        <f>AP16-(R16+Q16+P16)</f>
+        <f t="shared" si="6"/>
         <v>-349</v>
       </c>
       <c r="T16" s="2">
@@ -3174,7 +3262,7 @@
       <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:146" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>89</v>
       </c>
@@ -3191,115 +3279,115 @@
         <v>1826.5480000000002</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ref="F17" si="52">F13-F16+F10</f>
+        <f t="shared" ref="F17" si="56">F13-F16+F10</f>
         <v>1936</v>
       </c>
       <c r="G17" s="2">
-        <f>AM17-(F17+E17+D17)</f>
-        <v>2158.0589999999993</v>
+        <f t="shared" si="3"/>
+        <v>-5775.9410000000007</v>
       </c>
       <c r="H17" s="2">
         <f>H13-H16+H10</f>
         <v>2016</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" ref="I17" si="53">I13-I16+I10</f>
+        <f t="shared" ref="I17" si="57">I13-I16+I10</f>
         <v>2027</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" ref="J17" si="54">J13-J16+J10</f>
+        <f t="shared" ref="J17" si="58">J13-J16+J10</f>
         <v>3154</v>
       </c>
       <c r="K17" s="2">
-        <f>AN17-(J17+I17+H17)</f>
-        <v>3321</v>
+        <f t="shared" si="4"/>
+        <v>-5921</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" ref="L17" si="55">L13-L16+L10</f>
+        <f t="shared" ref="L17" si="59">L13-L16+L10</f>
         <v>3838</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" ref="M17" si="56">M13-M16+M10</f>
+        <f t="shared" ref="M17" si="60">M13-M16+M10</f>
         <v>4358</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" ref="N17" si="57">N13-N16+N10</f>
+        <f t="shared" ref="N17" si="61">N13-N16+N10</f>
         <v>5139</v>
       </c>
       <c r="O17" s="2">
-        <f>AO17-(N17+M17+L17)</f>
-        <v>7010</v>
+        <f t="shared" si="5"/>
+        <v>-7154</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" ref="P17" si="58">P13-P16+P10</f>
+        <f t="shared" ref="P17" si="62">P13-P16+P10</f>
         <v>7256</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" ref="Q17" si="59">Q13-Q16+Q10</f>
+        <f t="shared" ref="Q17" si="63">Q13-Q16+Q10</f>
         <v>5960</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" ref="R17" si="60">R13-R16+R10</f>
+        <f t="shared" ref="R17" si="64">R13-R16+R10</f>
         <v>7023</v>
       </c>
       <c r="S17" s="2">
-        <f>AP17-(R17+Q17+P17)</f>
-        <v>7826</v>
+        <f t="shared" si="6"/>
+        <v>-5919</v>
       </c>
       <c r="T17" s="2">
         <f>T13-T16+T10</f>
         <v>6329</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" ref="U17" si="61">U13-U16+U10</f>
+        <f t="shared" ref="U17" si="65">U13-U16+U10</f>
         <v>6639</v>
       </c>
       <c r="AE17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AF17" s="2">
-        <f t="shared" ref="AF17:AK17" si="62">AF13-AF16+AF10</f>
-        <v>454.16300000000001</v>
-      </c>
-      <c r="AG17" s="2">
-        <f t="shared" si="62"/>
-        <v>940.33300000000031</v>
-      </c>
-      <c r="AH17" s="2">
-        <f t="shared" si="62"/>
-        <v>1849.1449999999998</v>
-      </c>
-      <c r="AI17" s="2">
-        <f t="shared" si="62"/>
-        <v>4957.2019999999993</v>
-      </c>
-      <c r="AJ17" s="2">
-        <f t="shared" si="62"/>
-        <v>7769.1859999999997</v>
-      </c>
-      <c r="AK17" s="2">
-        <f t="shared" si="62"/>
-        <v>10907.163</v>
-      </c>
-      <c r="AL17" s="2">
-        <f>AL13-AL16+AL10</f>
-        <v>33184.229999999996</v>
-      </c>
-      <c r="AM17" s="2">
-        <f>AM13-AM16+AM10</f>
-        <v>7373</v>
-      </c>
-      <c r="AN17" s="2">
-        <f>AN13-AN16+AN10</f>
-        <v>10518</v>
-      </c>
-      <c r="AO17" s="2">
-        <f>AO13-AO16+AO10</f>
-        <v>20345</v>
-      </c>
-      <c r="AP17" s="2">
-        <f>AP13-AP16+AP10</f>
-        <v>28065</v>
+      <c r="AF17" s="15">
+        <f>AF14+AF15-AF16</f>
+        <v>-394.24900000000002</v>
+      </c>
+      <c r="AG17" s="15">
+        <f t="shared" ref="AG17:AP17" si="66">AG14+AG15-AG16</f>
+        <v>-94.56799999999987</v>
+      </c>
+      <c r="AH17" s="15">
+        <f t="shared" si="66"/>
+        <v>-286.44900000000007</v>
+      </c>
+      <c r="AI17" s="15">
+        <f t="shared" si="66"/>
+        <v>1678.4459999999999</v>
+      </c>
+      <c r="AJ17" s="15">
+        <f t="shared" si="66"/>
+        <v>3244.5219999999995</v>
+      </c>
+      <c r="AK17" s="15">
+        <f t="shared" si="66"/>
+        <v>3217.7030000000009</v>
+      </c>
+      <c r="AL17" s="15">
+        <f t="shared" si="66"/>
+        <v>-26401.796999999999</v>
+      </c>
+      <c r="AM17" s="15">
+        <f t="shared" si="66"/>
+        <v>-561</v>
+      </c>
+      <c r="AN17" s="15">
+        <f t="shared" si="66"/>
+        <v>1276</v>
+      </c>
+      <c r="AO17" s="15">
+        <f t="shared" si="66"/>
+        <v>6181</v>
+      </c>
+      <c r="AP17" s="15">
+        <f t="shared" si="66"/>
+        <v>14320</v>
       </c>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
@@ -3311,7 +3399,7 @@
       <c r="AX17" s="2"/>
       <c r="AY17" s="2"/>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:146" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>90</v>
       </c>
@@ -3332,7 +3420,7 @@
         <v>26</v>
       </c>
       <c r="G18" s="2">
-        <f>AM18-(F18+E18+D18)</f>
+        <f t="shared" si="3"/>
         <v>41.695999999999998</v>
       </c>
       <c r="H18" s="2">
@@ -3348,7 +3436,7 @@
         <v>186</v>
       </c>
       <c r="K18" s="2">
-        <f>AN18-(J18+I18+H18)</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="L18" s="2">
@@ -3364,7 +3452,7 @@
         <v>223</v>
       </c>
       <c r="O18" s="2">
-        <f>AO18-(N18+M18+L18)</f>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
       <c r="P18" s="2">
@@ -3380,7 +3468,7 @@
         <v>305</v>
       </c>
       <c r="S18" s="2">
-        <f>AP18-(R18+Q18+P18)</f>
+        <f t="shared" si="6"/>
         <v>276</v>
       </c>
       <c r="T18" s="2">
@@ -3447,7 +3535,7 @@
       <c r="AX18" s="2"/>
       <c r="AY18" s="2"/>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:146" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3460,71 +3548,71 @@
         <v>1429.52</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" ref="E19:U19" si="63">E17-E18</f>
+        <f t="shared" ref="E19:U19" si="67">E17-E18</f>
         <v>1807.1170000000002</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>1910</v>
       </c>
       <c r="G19" s="2">
-        <f>AM19-(F19+E19+D19)</f>
-        <v>2116.3629999999994</v>
+        <f t="shared" si="3"/>
+        <v>-5817.6370000000006</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>2014</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>2006</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>2968</v>
       </c>
       <c r="K19" s="2">
-        <f>AN19-(J19+I19+H19)</f>
-        <v>3238</v>
+        <f t="shared" si="4"/>
+        <v>-6004</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>3769</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>4243</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>4916</v>
       </c>
       <c r="O19" s="2">
-        <f>AO19-(N19+M19+L19)</f>
+        <f t="shared" si="5"/>
+        <v>-7446</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="67"/>
+        <v>6910</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="67"/>
+        <v>5755</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="67"/>
         <v>6718</v>
       </c>
-      <c r="P19" s="2">
-        <f t="shared" si="63"/>
-        <v>6910</v>
-      </c>
-      <c r="Q19" s="2">
-        <f t="shared" si="63"/>
-        <v>5755</v>
-      </c>
-      <c r="R19" s="2">
-        <f t="shared" si="63"/>
-        <v>6718</v>
-      </c>
       <c r="S19" s="2">
-        <f>AP19-(R19+Q19+P19)</f>
-        <v>7550</v>
+        <f t="shared" si="6"/>
+        <v>-6195</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>6068</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>6316</v>
       </c>
       <c r="V19" s="2"/>
@@ -3534,61 +3622,468 @@
       <c r="AE19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AF19" s="2">
-        <f t="shared" ref="AF19:AK19" si="64">AF17-AF18</f>
-        <v>454.02699999999999</v>
-      </c>
-      <c r="AG19" s="2">
-        <f t="shared" si="64"/>
-        <v>940.07420000000036</v>
-      </c>
-      <c r="AH19" s="2">
-        <f t="shared" si="64"/>
-        <v>1839.7409999999998</v>
-      </c>
-      <c r="AI19" s="2">
-        <f t="shared" si="64"/>
-        <v>4944.1629999999996</v>
-      </c>
-      <c r="AJ19" s="2">
-        <f t="shared" si="64"/>
-        <v>7742.4879999999994</v>
-      </c>
-      <c r="AK19" s="2">
-        <f t="shared" si="64"/>
-        <v>10875.617</v>
-      </c>
-      <c r="AL19" s="2">
-        <f>AL17-AL18</f>
-        <v>33126.392999999996</v>
-      </c>
-      <c r="AM19" s="2">
-        <f>AM17-AM18</f>
-        <v>7263</v>
-      </c>
-      <c r="AN19" s="2">
-        <f>AN17-AN18</f>
-        <v>10226</v>
-      </c>
-      <c r="AO19" s="2">
-        <f>AO17-AO18</f>
-        <v>19646</v>
-      </c>
-      <c r="AP19" s="2">
-        <f>AP17-AP18</f>
-        <v>26933</v>
-      </c>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="2"/>
-    </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AF19" s="15">
+        <f>AF17-AF18</f>
+        <v>-394.38500000000005</v>
+      </c>
+      <c r="AG19" s="15">
+        <f t="shared" ref="AG19:AP19" si="68">AG17-AG18</f>
+        <v>-94.826799999999864</v>
+      </c>
+      <c r="AH19" s="15">
+        <f t="shared" si="68"/>
+        <v>-295.85300000000007</v>
+      </c>
+      <c r="AI19" s="15">
+        <f t="shared" si="68"/>
+        <v>1665.4069999999999</v>
+      </c>
+      <c r="AJ19" s="15">
+        <f t="shared" si="68"/>
+        <v>3217.8239999999996</v>
+      </c>
+      <c r="AK19" s="15">
+        <f t="shared" si="68"/>
+        <v>3186.1570000000011</v>
+      </c>
+      <c r="AL19" s="15">
+        <f t="shared" si="68"/>
+        <v>-26459.633999999998</v>
+      </c>
+      <c r="AM19" s="15">
+        <f t="shared" si="68"/>
+        <v>-671</v>
+      </c>
+      <c r="AN19" s="15">
+        <f t="shared" si="68"/>
+        <v>984</v>
+      </c>
+      <c r="AO19" s="15">
+        <f t="shared" si="68"/>
+        <v>5482</v>
+      </c>
+      <c r="AP19" s="15">
+        <f t="shared" si="68"/>
+        <v>13188</v>
+      </c>
+      <c r="AQ19" s="15">
+        <f>AP19*1.06</f>
+        <v>13979.28</v>
+      </c>
+      <c r="AR19" s="15">
+        <f t="shared" ref="AR19:AX19" si="69">AQ19*1.06</f>
+        <v>14818.036800000002</v>
+      </c>
+      <c r="AS19" s="15">
+        <f t="shared" si="69"/>
+        <v>15707.119008000003</v>
+      </c>
+      <c r="AT19" s="15">
+        <f t="shared" si="69"/>
+        <v>16649.546148480003</v>
+      </c>
+      <c r="AU19" s="15">
+        <f t="shared" si="69"/>
+        <v>17648.518917388803</v>
+      </c>
+      <c r="AV19" s="15">
+        <f t="shared" si="69"/>
+        <v>18707.430052432133</v>
+      </c>
+      <c r="AW19" s="15">
+        <f t="shared" si="69"/>
+        <v>19829.875855578062</v>
+      </c>
+      <c r="AX19" s="15">
+        <f t="shared" si="69"/>
+        <v>21019.668406912748</v>
+      </c>
+      <c r="AY19" s="15">
+        <f>AX19*(1+$Z4)</f>
+        <v>20704.373380809055</v>
+      </c>
+      <c r="AZ19" s="15">
+        <f t="shared" ref="AZ19:DK19" si="70">AY19*(1+$Z4)</f>
+        <v>20393.807780096919</v>
+      </c>
+      <c r="BA19" s="15">
+        <f t="shared" si="70"/>
+        <v>20087.900663395463</v>
+      </c>
+      <c r="BB19" s="15">
+        <f t="shared" si="70"/>
+        <v>19786.582153444531</v>
+      </c>
+      <c r="BC19" s="15">
+        <f t="shared" si="70"/>
+        <v>19489.783421142864</v>
+      </c>
+      <c r="BD19" s="15">
+        <f t="shared" si="70"/>
+        <v>19197.436669825722</v>
+      </c>
+      <c r="BE19" s="15">
+        <f t="shared" si="70"/>
+        <v>18909.475119778337</v>
+      </c>
+      <c r="BF19" s="15">
+        <f t="shared" si="70"/>
+        <v>18625.832992981661</v>
+      </c>
+      <c r="BG19" s="15">
+        <f t="shared" si="70"/>
+        <v>18346.445498086934</v>
+      </c>
+      <c r="BH19" s="15">
+        <f t="shared" si="70"/>
+        <v>18071.248815615629</v>
+      </c>
+      <c r="BI19" s="15">
+        <f t="shared" si="70"/>
+        <v>17800.180083381394</v>
+      </c>
+      <c r="BJ19" s="15">
+        <f t="shared" si="70"/>
+        <v>17533.177382130674</v>
+      </c>
+      <c r="BK19" s="15">
+        <f t="shared" si="70"/>
+        <v>17270.179721398716</v>
+      </c>
+      <c r="BL19" s="15">
+        <f t="shared" si="70"/>
+        <v>17011.127025577734</v>
+      </c>
+      <c r="BM19" s="15">
+        <f t="shared" si="70"/>
+        <v>16755.960120194068</v>
+      </c>
+      <c r="BN19" s="15">
+        <f t="shared" si="70"/>
+        <v>16504.620718391157</v>
+      </c>
+      <c r="BO19" s="15">
+        <f t="shared" si="70"/>
+        <v>16257.05140761529</v>
+      </c>
+      <c r="BP19" s="15">
+        <f t="shared" si="70"/>
+        <v>16013.195636501061</v>
+      </c>
+      <c r="BQ19" s="15">
+        <f t="shared" si="70"/>
+        <v>15772.997701953545</v>
+      </c>
+      <c r="BR19" s="15">
+        <f t="shared" si="70"/>
+        <v>15536.402736424243</v>
+      </c>
+      <c r="BS19" s="15">
+        <f t="shared" si="70"/>
+        <v>15303.356695377879</v>
+      </c>
+      <c r="BT19" s="15">
+        <f t="shared" si="70"/>
+        <v>15073.80634494721</v>
+      </c>
+      <c r="BU19" s="15">
+        <f t="shared" si="70"/>
+        <v>14847.699249773003</v>
+      </c>
+      <c r="BV19" s="15">
+        <f t="shared" si="70"/>
+        <v>14624.983761026408</v>
+      </c>
+      <c r="BW19" s="15">
+        <f t="shared" si="70"/>
+        <v>14405.609004611011</v>
+      </c>
+      <c r="BX19" s="15">
+        <f t="shared" si="70"/>
+        <v>14189.524869541845</v>
+      </c>
+      <c r="BY19" s="15">
+        <f t="shared" si="70"/>
+        <v>13976.681996498717</v>
+      </c>
+      <c r="BZ19" s="15">
+        <f t="shared" si="70"/>
+        <v>13767.031766551236</v>
+      </c>
+      <c r="CA19" s="15">
+        <f t="shared" si="70"/>
+        <v>13560.526290052967</v>
+      </c>
+      <c r="CB19" s="15">
+        <f t="shared" si="70"/>
+        <v>13357.118395702173</v>
+      </c>
+      <c r="CC19" s="15">
+        <f t="shared" si="70"/>
+        <v>13156.761619766641</v>
+      </c>
+      <c r="CD19" s="15">
+        <f t="shared" si="70"/>
+        <v>12959.410195470142</v>
+      </c>
+      <c r="CE19" s="15">
+        <f t="shared" si="70"/>
+        <v>12765.01904253809</v>
+      </c>
+      <c r="CF19" s="15">
+        <f t="shared" si="70"/>
+        <v>12573.543756900019</v>
+      </c>
+      <c r="CG19" s="15">
+        <f t="shared" si="70"/>
+        <v>12384.940600546519</v>
+      </c>
+      <c r="CH19" s="15">
+        <f t="shared" si="70"/>
+        <v>12199.166491538321</v>
+      </c>
+      <c r="CI19" s="15">
+        <f t="shared" si="70"/>
+        <v>12016.178994165246</v>
+      </c>
+      <c r="CJ19" s="15">
+        <f t="shared" si="70"/>
+        <v>11835.936309252767</v>
+      </c>
+      <c r="CK19" s="15">
+        <f t="shared" si="70"/>
+        <v>11658.397264613975</v>
+      </c>
+      <c r="CL19" s="15">
+        <f t="shared" si="70"/>
+        <v>11483.521305644766</v>
+      </c>
+      <c r="CM19" s="15">
+        <f t="shared" si="70"/>
+        <v>11311.268486060095</v>
+      </c>
+      <c r="CN19" s="15">
+        <f t="shared" si="70"/>
+        <v>11141.599458769193</v>
+      </c>
+      <c r="CO19" s="15">
+        <f t="shared" si="70"/>
+        <v>10974.475466887656</v>
+      </c>
+      <c r="CP19" s="15">
+        <f t="shared" si="70"/>
+        <v>10809.85833488434</v>
+      </c>
+      <c r="CQ19" s="15">
+        <f t="shared" si="70"/>
+        <v>10647.710459861075</v>
+      </c>
+      <c r="CR19" s="15">
+        <f t="shared" si="70"/>
+        <v>10487.994802963158</v>
+      </c>
+      <c r="CS19" s="15">
+        <f t="shared" si="70"/>
+        <v>10330.67488091871</v>
+      </c>
+      <c r="CT19" s="15">
+        <f t="shared" si="70"/>
+        <v>10175.714757704929</v>
+      </c>
+      <c r="CU19" s="15">
+        <f t="shared" si="70"/>
+        <v>10023.079036339355</v>
+      </c>
+      <c r="CV19" s="15">
+        <f t="shared" si="70"/>
+        <v>9872.7328507942657</v>
+      </c>
+      <c r="CW19" s="15">
+        <f t="shared" si="70"/>
+        <v>9724.6418580323516</v>
+      </c>
+      <c r="CX19" s="15">
+        <f t="shared" si="70"/>
+        <v>9578.7722301618669</v>
+      </c>
+      <c r="CY19" s="15">
+        <f t="shared" si="70"/>
+        <v>9435.0906467094392</v>
+      </c>
+      <c r="CZ19" s="15">
+        <f t="shared" si="70"/>
+        <v>9293.5642870087977</v>
+      </c>
+      <c r="DA19" s="15">
+        <f t="shared" si="70"/>
+        <v>9154.160822703665</v>
+      </c>
+      <c r="DB19" s="15">
+        <f t="shared" si="70"/>
+        <v>9016.848410363109</v>
+      </c>
+      <c r="DC19" s="15">
+        <f t="shared" si="70"/>
+        <v>8881.595684207663</v>
+      </c>
+      <c r="DD19" s="15">
+        <f t="shared" si="70"/>
+        <v>8748.371748944548</v>
+      </c>
+      <c r="DE19" s="15">
+        <f t="shared" si="70"/>
+        <v>8617.1461727103797</v>
+      </c>
+      <c r="DF19" s="15">
+        <f t="shared" si="70"/>
+        <v>8487.8889801197238</v>
+      </c>
+      <c r="DG19" s="15">
+        <f t="shared" si="70"/>
+        <v>8360.5706454179272</v>
+      </c>
+      <c r="DH19" s="15">
+        <f t="shared" si="70"/>
+        <v>8235.1620857366579</v>
+      </c>
+      <c r="DI19" s="15">
+        <f t="shared" si="70"/>
+        <v>8111.6346544506077</v>
+      </c>
+      <c r="DJ19" s="15">
+        <f t="shared" si="70"/>
+        <v>7989.9601346338486</v>
+      </c>
+      <c r="DK19" s="15">
+        <f t="shared" si="70"/>
+        <v>7870.110732614341</v>
+      </c>
+      <c r="DL19" s="15">
+        <f t="shared" ref="DL19:EP19" si="71">DK19*(1+$Z4)</f>
+        <v>7752.0590716251254</v>
+      </c>
+      <c r="DM19" s="15">
+        <f t="shared" si="71"/>
+        <v>7635.7781855507483</v>
+      </c>
+      <c r="DN19" s="15">
+        <f t="shared" si="71"/>
+        <v>7521.2415127674867</v>
+      </c>
+      <c r="DO19" s="15">
+        <f t="shared" si="71"/>
+        <v>7408.4228900759745</v>
+      </c>
+      <c r="DP19" s="15">
+        <f t="shared" si="71"/>
+        <v>7297.296546724835</v>
+      </c>
+      <c r="DQ19" s="15">
+        <f t="shared" si="71"/>
+        <v>7187.8370985239626</v>
+      </c>
+      <c r="DR19" s="15">
+        <f t="shared" si="71"/>
+        <v>7080.0195420461032</v>
+      </c>
+      <c r="DS19" s="15">
+        <f t="shared" si="71"/>
+        <v>6973.8192489154117</v>
+      </c>
+      <c r="DT19" s="15">
+        <f t="shared" si="71"/>
+        <v>6869.2119601816803</v>
+      </c>
+      <c r="DU19" s="15">
+        <f t="shared" si="71"/>
+        <v>6766.173780778955</v>
+      </c>
+      <c r="DV19" s="15">
+        <f t="shared" si="71"/>
+        <v>6664.6811740672701</v>
+      </c>
+      <c r="DW19" s="15">
+        <f t="shared" si="71"/>
+        <v>6564.7109564562606</v>
+      </c>
+      <c r="DX19" s="15">
+        <f t="shared" si="71"/>
+        <v>6466.2402921094163</v>
+      </c>
+      <c r="DY19" s="15">
+        <f t="shared" si="71"/>
+        <v>6369.2466877277748</v>
+      </c>
+      <c r="DZ19" s="15">
+        <f t="shared" si="71"/>
+        <v>6273.7079874118581</v>
+      </c>
+      <c r="EA19" s="15">
+        <f t="shared" si="71"/>
+        <v>6179.6023676006798</v>
+      </c>
+      <c r="EB19" s="15">
+        <f t="shared" si="71"/>
+        <v>6086.9083320866694</v>
+      </c>
+      <c r="EC19" s="15">
+        <f t="shared" si="71"/>
+        <v>5995.604707105369</v>
+      </c>
+      <c r="ED19" s="15">
+        <f t="shared" si="71"/>
+        <v>5905.6706364987886</v>
+      </c>
+      <c r="EE19" s="15">
+        <f t="shared" si="71"/>
+        <v>5817.0855769513064</v>
+      </c>
+      <c r="EF19" s="15">
+        <f t="shared" si="71"/>
+        <v>5729.8292932970371</v>
+      </c>
+      <c r="EG19" s="15">
+        <f t="shared" si="71"/>
+        <v>5643.8818538975811</v>
+      </c>
+      <c r="EH19" s="15">
+        <f t="shared" si="71"/>
+        <v>5559.2236260891177</v>
+      </c>
+      <c r="EI19" s="15">
+        <f t="shared" si="71"/>
+        <v>5475.8352716977806</v>
+      </c>
+      <c r="EJ19" s="15">
+        <f t="shared" si="71"/>
+        <v>5393.6977426223139</v>
+      </c>
+      <c r="EK19" s="15">
+        <f t="shared" si="71"/>
+        <v>5312.7922764829791</v>
+      </c>
+      <c r="EL19" s="15">
+        <f t="shared" si="71"/>
+        <v>5233.1003923357348</v>
+      </c>
+      <c r="EM19" s="15">
+        <f t="shared" si="71"/>
+        <v>5154.6038864506991</v>
+      </c>
+      <c r="EN19" s="15">
+        <f t="shared" si="71"/>
+        <v>5077.2848281539382</v>
+      </c>
+      <c r="EO19" s="15">
+        <f t="shared" si="71"/>
+        <v>5001.125555731629</v>
+      </c>
+      <c r="EP19" s="15">
+        <f t="shared" si="71"/>
+        <v>4926.1086723956541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:146" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3609,275 +4104,204 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="W20" s="5" t="s">
+      <c r="V20" s="2"/>
+      <c r="AE20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+      <c r="BE20" s="15"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="15"/>
+      <c r="BL20" s="15"/>
+      <c r="BM20" s="15"/>
+      <c r="BN20" s="15"/>
+      <c r="BO20" s="15"/>
+      <c r="BP20" s="15"/>
+      <c r="BQ20" s="15"/>
+      <c r="BR20" s="15"/>
+      <c r="BS20" s="15"/>
+      <c r="BT20" s="15"/>
+      <c r="BU20" s="15"/>
+      <c r="BV20" s="15"/>
+      <c r="BW20" s="15"/>
+      <c r="BX20" s="15"/>
+      <c r="BY20" s="15"/>
+      <c r="BZ20" s="15"/>
+      <c r="CA20" s="15"/>
+      <c r="CB20" s="15"/>
+      <c r="CC20" s="15"/>
+      <c r="CD20" s="15"/>
+      <c r="CE20" s="15"/>
+      <c r="CF20" s="15"/>
+      <c r="CG20" s="15"/>
+      <c r="CH20" s="15"/>
+    </row>
+    <row r="21" spans="1:146" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="W21" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="X20" t="s">
+      <c r="X21" t="s">
         <v>92</v>
       </c>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
-      <c r="AN20" s="2"/>
-      <c r="AO20" s="2"/>
-      <c r="AP20" s="2"/>
-      <c r="AQ20" s="2"/>
-      <c r="AR20" s="2"/>
-      <c r="AS20" s="2"/>
-      <c r="AT20" s="5"/>
-      <c r="AU20" s="2"/>
-      <c r="AV20" s="2"/>
-      <c r="AW20" s="2"/>
-      <c r="AX20" s="2"/>
-    </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+    </row>
+    <row r="22" spans="1:146" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <f>D4/C4-1</f>
         <v>-0.38940746373938606</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="12">
         <f>E4/D4-1</f>
         <v>0.44376736940503436</v>
       </c>
-      <c r="F21" s="12">
-        <f t="shared" ref="F21:U21" si="65">F4/E4-1</f>
+      <c r="F22" s="12">
+        <f t="shared" ref="F22:U22" si="72">F4/E4-1</f>
         <v>-4.350317657446312E-3</v>
       </c>
-      <c r="G21" s="12">
-        <f t="shared" si="65"/>
+      <c r="G22" s="12">
+        <f t="shared" si="72"/>
         <v>0.18956659816925092</v>
       </c>
-      <c r="H21" s="12">
-        <f t="shared" si="65"/>
+      <c r="H22" s="12">
+        <f t="shared" si="72"/>
         <v>-0.19406383730517063</v>
       </c>
-      <c r="I21" s="12">
-        <f t="shared" si="65"/>
+      <c r="I22" s="12">
+        <f t="shared" si="72"/>
         <v>9.1582229150428685E-3</v>
       </c>
-      <c r="J21" s="12">
-        <f t="shared" si="65"/>
+      <c r="J22" s="12">
+        <f t="shared" si="72"/>
         <v>0.46958872369183235</v>
       </c>
-      <c r="K21" s="12">
-        <f t="shared" si="65"/>
+      <c r="K22" s="12">
+        <f t="shared" si="72"/>
         <v>0.22375509131520177</v>
       </c>
-      <c r="L21" s="12">
-        <f t="shared" si="65"/>
+      <c r="L22" s="12">
+        <f t="shared" si="72"/>
         <v>-3.349796006012451E-2</v>
       </c>
-      <c r="M21" s="12">
-        <f t="shared" si="65"/>
+      <c r="M22" s="12">
+        <f t="shared" si="72"/>
         <v>0.13374805598755835</v>
       </c>
-      <c r="N21" s="12">
-        <f t="shared" si="65"/>
+      <c r="N22" s="12">
+        <f t="shared" si="72"/>
         <v>0.18136390358612586</v>
       </c>
-      <c r="O21" s="12">
-        <f t="shared" si="65"/>
+      <c r="O22" s="12">
+        <f t="shared" si="72"/>
         <v>0.32429294185950064</v>
       </c>
-      <c r="P21" s="12">
-        <f t="shared" si="65"/>
+      <c r="P22" s="12">
+        <f t="shared" si="72"/>
         <v>5.5990480365754269E-2</v>
       </c>
-      <c r="Q21" s="12">
-        <f t="shared" si="65"/>
+      <c r="Q22" s="12">
+        <f t="shared" si="72"/>
         <v>-0.13397781863471914</v>
       </c>
-      <c r="R21" s="12">
-        <f t="shared" si="65"/>
+      <c r="R22" s="12">
+        <f t="shared" si="72"/>
         <v>0.28009861662785918</v>
       </c>
-      <c r="S21" s="12">
-        <f t="shared" si="65"/>
+      <c r="S22" s="12">
+        <f t="shared" si="72"/>
         <v>0.13989942221271123</v>
       </c>
-      <c r="T21" s="12">
-        <f t="shared" si="65"/>
+      <c r="T22" s="12">
+        <f t="shared" si="72"/>
         <v>-6.3077861735579832E-2</v>
       </c>
-      <c r="U21" s="12">
-        <f t="shared" si="65"/>
+      <c r="U22" s="12">
+        <f t="shared" si="72"/>
         <v>6.5370936232029164E-2</v>
       </c>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12">
-        <f>AVERAGE(B21:S21)</f>
-        <v>0.10599575179618907</v>
-      </c>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12">
-        <f t="shared" ref="AF21:AL21" si="66">AG4/AF4-1</f>
-        <v>4.1796504528142409</v>
-      </c>
-      <c r="AH21" s="12">
-        <f t="shared" si="66"/>
-        <v>0.59813063060808314</v>
-      </c>
-      <c r="AI21" s="12">
-        <f t="shared" si="66"/>
-        <v>7.4815134291324359E-2</v>
-      </c>
-      <c r="AJ21" s="12">
-        <f t="shared" si="66"/>
-        <v>0.62869453695913857</v>
-      </c>
-      <c r="AK21" s="12">
-        <f t="shared" si="66"/>
-        <v>0.52706053150407595</v>
-      </c>
-      <c r="AL21" s="12">
-        <f t="shared" si="66"/>
-        <v>1.1693639135618703</v>
-      </c>
-      <c r="AM21" s="12">
-        <f>AM4/AL4-1</f>
-        <v>0.12454869658805512</v>
-      </c>
-      <c r="AN21" s="12">
-        <f>AN4/AM4-1</f>
-        <v>0.30810239661879835</v>
-      </c>
-      <c r="AO21" s="12">
-        <f>AO4/AN4-1</f>
-        <v>0.73417535614627694</v>
-      </c>
-      <c r="AP21" s="12">
-        <f>AP4/AO4-1</f>
-        <v>0.51299966124661256</v>
-      </c>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="12"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="12"/>
-      <c r="AV21" s="12"/>
-      <c r="AW21" s="12"/>
-      <c r="AX21" s="12"/>
-      <c r="AY21" s="12"/>
-      <c r="AZ21" s="12"/>
-      <c r="BA21" s="12"/>
-      <c r="BB21" s="12"/>
-      <c r="BC21" s="12"/>
-      <c r="BD21" s="12"/>
-      <c r="BE21" s="12"/>
-      <c r="BF21" s="12"/>
-      <c r="BG21" s="12"/>
-      <c r="BH21" s="12"/>
-    </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="12">
-        <f>D6/C6-1</f>
-        <v>-0.33452679373302885</v>
-      </c>
-      <c r="E22" s="12">
-        <f>E6/D6-1</f>
-        <v>0.39815618928169427</v>
-      </c>
-      <c r="F22" s="12">
-        <f>F6/E6-1</f>
-        <v>-7.3509262519851903E-3</v>
-      </c>
-      <c r="G22" s="12">
-        <f>G6/F6-1</f>
-        <v>0.17148342059336841</v>
-      </c>
-      <c r="H22" s="12">
-        <f>H6/F6-1</f>
-        <v>-5.0452165635411661E-2</v>
-      </c>
-      <c r="I22" s="12">
-        <f>I6/H6-1</f>
-        <v>8.521303258145263E-3</v>
-      </c>
-      <c r="J22" s="12">
-        <f>J6/I6-1</f>
-        <v>0.4531146454605699</v>
-      </c>
-      <c r="K22" s="12">
-        <f>K6/J6-1</f>
-        <v>0.2249458442594916</v>
-      </c>
-      <c r="L22" s="12">
-        <f>L6/J6-1</f>
-        <v>0.18447155398472237</v>
-      </c>
-      <c r="M22" s="12">
-        <f>M6/L6-1</f>
-        <v>0.15102512272596025</v>
-      </c>
-      <c r="N22" s="12">
-        <f>N6/M6-1</f>
-        <v>0.15044321792941973</v>
-      </c>
-      <c r="O22" s="12">
-        <f>O6/N6-1</f>
-        <v>0.28799883695573159</v>
-      </c>
-      <c r="P22" s="12">
-        <f>P6/N6-1</f>
-        <v>0.36337864359962202</v>
-      </c>
-      <c r="Q22" s="12">
-        <f>Q6/P6-1</f>
-        <v>-9.7142247814032801E-2</v>
-      </c>
-      <c r="R22" s="12">
-        <f>R6/Q6-1</f>
-        <v>0.26691862525097432</v>
-      </c>
-      <c r="S22" s="12">
-        <f>S6/R6-1</f>
-        <v>0.13349491936235669</v>
-      </c>
-      <c r="T22" s="12">
-        <f>T6/R6-1</f>
-        <v>8.7396289736179744E-2</v>
-      </c>
-      <c r="U22" s="12">
-        <f>U6/T6-1</f>
-        <v>6.8498435423721471E-2</v>
-      </c>
+      <c r="V22" s="12"/>
       <c r="W22" s="12">
         <f>AVERAGE(B22:S22)</f>
-        <v>0.14403001182672487</v>
-      </c>
+        <v>0.10599575179618907</v>
+      </c>
+      <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
@@ -3885,48 +4309,48 @@
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13">
-        <f t="shared" ref="AF22:AL22" si="67">AG6/AF6-1</f>
-        <v>3.8709661807693054</v>
-      </c>
-      <c r="AH22" s="13">
-        <f t="shared" si="67"/>
-        <v>0.58888520166362279</v>
-      </c>
-      <c r="AI22" s="13">
-        <f t="shared" si="67"/>
-        <v>0.1696549727422465</v>
-      </c>
-      <c r="AJ22" s="13">
-        <f t="shared" si="67"/>
-        <v>0.69762412078355007</v>
-      </c>
-      <c r="AK22" s="13">
-        <f t="shared" si="67"/>
-        <v>0.51813182850698669</v>
-      </c>
-      <c r="AL22" s="13">
-        <f t="shared" si="67"/>
-        <v>1.2259724311036893</v>
-      </c>
-      <c r="AM22" s="13">
-        <f>AM6/AL6-1</f>
-        <v>0.14522590184326489</v>
-      </c>
-      <c r="AN22" s="13">
-        <f>AN6/AM6-1</f>
-        <v>0.28309870615998056</v>
-      </c>
-      <c r="AO22" s="13">
-        <f>AO6/AN6-1</f>
-        <v>0.70671613394216126</v>
-      </c>
-      <c r="AP22" s="13">
-        <f>AP6/AO6-1</f>
-        <v>0.51351652639206291</v>
+        <v>94</v>
+      </c>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12">
+        <f t="shared" ref="AG22:AL22" si="73">AG4/AF4-1</f>
+        <v>4.1796504528142409</v>
+      </c>
+      <c r="AH22" s="12">
+        <f t="shared" si="73"/>
+        <v>0.59813063060808314</v>
+      </c>
+      <c r="AI22" s="12">
+        <f t="shared" si="73"/>
+        <v>7.4815134291324359E-2</v>
+      </c>
+      <c r="AJ22" s="12">
+        <f t="shared" si="73"/>
+        <v>0.62869453695913857</v>
+      </c>
+      <c r="AK22" s="12">
+        <f t="shared" si="73"/>
+        <v>0.52706053150407595</v>
+      </c>
+      <c r="AL22" s="12">
+        <f t="shared" si="73"/>
+        <v>1.1693639135618703</v>
+      </c>
+      <c r="AM22" s="12">
+        <f>AM4/AL4-1</f>
+        <v>0.12454869658805512</v>
+      </c>
+      <c r="AN22" s="12">
+        <f>AN4/AM4-1</f>
+        <v>0.30810239661879835</v>
+      </c>
+      <c r="AO22" s="12">
+        <f>AO4/AN4-1</f>
+        <v>0.73417535614627694</v>
+      </c>
+      <c r="AP22" s="12">
+        <f>AP4/AO4-1</f>
+        <v>0.51299966124661256</v>
       </c>
       <c r="AQ22" s="12"/>
       <c r="AR22" s="12"/>
@@ -3946,90 +4370,102 @@
       <c r="BF22" s="12"/>
       <c r="BG22" s="12"/>
       <c r="BH22" s="12"/>
-    </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI22" s="12"/>
+      <c r="BJ22" s="12"/>
+      <c r="BK22" s="12"/>
+      <c r="BL22" s="12"/>
+      <c r="BM22" s="12"/>
+      <c r="BN22" s="12"/>
+      <c r="BO22" s="12"/>
+      <c r="BP22" s="12"/>
+      <c r="BQ22" s="12"/>
+      <c r="BR22" s="12"/>
+      <c r="BS22" s="12"/>
+      <c r="BT22" s="12"/>
+      <c r="BU22" s="12"/>
+    </row>
+    <row r="23" spans="1:146" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="12">
-        <f t="shared" ref="C23:U23" si="68">C10/C6</f>
-        <v>0.22326682162993358</v>
+        <v>96</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.1245728249745016</v>
+        <f>D6/C6-1</f>
+        <v>-0.33452679373302885</v>
       </c>
       <c r="E23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.16179849176556416</v>
+        <f>E6/D6-1</f>
+        <v>0.39815618928169427</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.18895763921941933</v>
+        <f>F6/E6-1</f>
+        <v>-7.3509262519851903E-3</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.17401318551543496</v>
+        <f>G6/F6-1</f>
+        <v>0.17148342059336841</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.20618212197159566</v>
+        <f>H6/F6-1</f>
+        <v>-5.0452165635411661E-2</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.20990722332670642</v>
+        <f>I6/H6-1</f>
+        <v>8.521303258145263E-3</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.23520693193478509</v>
+        <f>J6/I6-1</f>
+        <v>0.4531146454605699</v>
       </c>
       <c r="K23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.19229337304542071</v>
+        <f>K6/J6-1</f>
+        <v>0.2249458442594916</v>
       </c>
       <c r="L23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.21320627586870727</v>
+        <f>L6/J6-1</f>
+        <v>0.18447155398472237</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.24117745442381669</v>
+        <f>M6/L6-1</f>
+        <v>0.15102512272596025</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.26604637639020134</v>
+        <f>N6/M6-1</f>
+        <v>0.15044321792941973</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.27354816863254133</v>
+        <f>O6/N6-1</f>
+        <v>0.28799883695573159</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.29110684580934099</v>
+        <f>P6/N6-1</f>
+        <v>0.36337864359962202</v>
       </c>
       <c r="Q23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.25002952639659853</v>
+        <f>Q6/P6-1</f>
+        <v>-9.7142247814032801E-2</v>
       </c>
       <c r="R23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.25086231005873033</v>
+        <f>R6/Q6-1</f>
+        <v>0.26691862525097432</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.23756065465910026</v>
+        <f>S6/R6-1</f>
+        <v>0.13349491936235669</v>
       </c>
       <c r="T23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.19336448197522396</v>
+        <f>T6/R6-1</f>
+        <v>8.7396289736179744E-2</v>
       </c>
       <c r="U23" s="12">
-        <f t="shared" si="68"/>
-        <v>0.18185100493440848</v>
+        <f>U6/T6-1</f>
+        <v>6.8498435423721471E-2</v>
       </c>
       <c r="W23" s="12">
-        <f>AVERAGE(A23:S23)</f>
-        <v>0.21998448386014105</v>
+        <f>AVERAGE(B23:S23)</f>
+        <v>0.14403001182672487</v>
       </c>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
@@ -4038,51 +4474,48 @@
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
       <c r="AE23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF23" s="12">
-        <f t="shared" ref="AF23:AK23" si="69">AF10/AF6</f>
-        <v>7.2756354414696953E-2</v>
-      </c>
-      <c r="AG23" s="12">
-        <f t="shared" si="69"/>
-        <v>0.22639441696688858</v>
-      </c>
-      <c r="AH23" s="12">
-        <f t="shared" si="69"/>
-        <v>0.27566380978227562</v>
-      </c>
-      <c r="AI23" s="12">
-        <f t="shared" si="69"/>
-        <v>0.91845650850727867</v>
-      </c>
-      <c r="AJ23" s="12">
-        <f t="shared" si="69"/>
-        <v>0.89774981474675652</v>
-      </c>
-      <c r="AK23" s="12">
-        <f t="shared" si="69"/>
-        <v>0.78037702384533203</v>
-      </c>
-      <c r="AL23" s="12">
-        <f>AL10/AL6</f>
-        <v>0.18834026954977687</v>
-      </c>
-      <c r="AM23" s="12">
-        <f>AM10/AM6</f>
-        <v>0.1655545609895028</v>
-      </c>
-      <c r="AN23" s="12">
-        <f>AN10/AN6</f>
-        <v>0.2102359208523592</v>
-      </c>
-      <c r="AO23" s="12">
-        <f>AO10/AO6</f>
-        <v>0.25279155751258753</v>
-      </c>
-      <c r="AP23" s="12">
-        <f>AP10/AP6</f>
-        <v>0.25598438535759005</v>
+        <v>96</v>
+      </c>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13">
+        <f t="shared" ref="AG23:AL23" si="74">AG6/AF6-1</f>
+        <v>3.8709661807693054</v>
+      </c>
+      <c r="AH23" s="13">
+        <f t="shared" si="74"/>
+        <v>0.58888520166362279</v>
+      </c>
+      <c r="AI23" s="13">
+        <f t="shared" si="74"/>
+        <v>0.1696549727422465</v>
+      </c>
+      <c r="AJ23" s="13">
+        <f t="shared" si="74"/>
+        <v>0.69762412078355007</v>
+      </c>
+      <c r="AK23" s="13">
+        <f t="shared" si="74"/>
+        <v>0.51813182850698669</v>
+      </c>
+      <c r="AL23" s="13">
+        <f t="shared" si="74"/>
+        <v>1.2259724311036893</v>
+      </c>
+      <c r="AM23" s="13">
+        <f>AM6/AL6-1</f>
+        <v>0.14522590184326489</v>
+      </c>
+      <c r="AN23" s="13">
+        <f>AN6/AM6-1</f>
+        <v>0.28309870615998056</v>
+      </c>
+      <c r="AO23" s="13">
+        <f>AO6/AN6-1</f>
+        <v>0.70671613394216126</v>
+      </c>
+      <c r="AP23" s="13">
+        <f>AP6/AO6-1</f>
+        <v>0.51351652639206291</v>
       </c>
       <c r="AQ23" s="12"/>
       <c r="AR23" s="12"/>
@@ -4102,83 +4535,294 @@
       <c r="BF23" s="12"/>
       <c r="BG23" s="12"/>
       <c r="BH23" s="12"/>
-    </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
+      <c r="BI23" s="12"/>
+      <c r="BJ23" s="12"/>
+      <c r="BK23" s="12"/>
+      <c r="BL23" s="12"/>
+      <c r="BM23" s="12"/>
+      <c r="BN23" s="12"/>
+      <c r="BO23" s="12"/>
+      <c r="BP23" s="12"/>
+      <c r="BQ23" s="12"/>
+      <c r="BR23" s="12"/>
+      <c r="BS23" s="12"/>
+      <c r="BT23" s="12"/>
+      <c r="BU23" s="12"/>
+    </row>
+    <row r="24" spans="1:146" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" ref="C24:U24" si="75">C10/C6</f>
+        <v>0.22326682162993358</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.1245728249745016</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.16179849176556416</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.18895763921941933</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.17401318551543496</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.20618212197159566</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.20990722332670642</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.23520693193478509</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.19229337304542071</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.21320627586870727</v>
+      </c>
+      <c r="M24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.24117745442381669</v>
+      </c>
+      <c r="N24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.26604637639020134</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.27354816863254133</v>
+      </c>
+      <c r="P24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.29110684580934099</v>
+      </c>
+      <c r="Q24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.25002952639659853</v>
+      </c>
+      <c r="R24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.25086231005873033</v>
+      </c>
+      <c r="S24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.23756065465910026</v>
+      </c>
+      <c r="T24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.19336448197522396</v>
+      </c>
+      <c r="U24" s="12">
+        <f t="shared" si="75"/>
+        <v>0.18185100493440848</v>
+      </c>
+      <c r="W24" s="12">
+        <f>AVERAGE(A24:S24)</f>
+        <v>0.21998448386014105</v>
+      </c>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
       <c r="AD24" s="12"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="12"/>
-      <c r="AJ24" s="12"/>
-      <c r="AL24" s="12"/>
-      <c r="AM24" s="12"/>
-      <c r="AN24" s="12"/>
-      <c r="AO24" s="12"/>
-      <c r="AP24" s="12"/>
-      <c r="AQ24" s="2"/>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
+      <c r="AE24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF24" s="12">
+        <f t="shared" ref="AF24:AK24" si="76">AF10/AF6</f>
+        <v>7.2756354414696953E-2</v>
+      </c>
+      <c r="AG24" s="12">
+        <f t="shared" si="76"/>
+        <v>0.22639441696688858</v>
+      </c>
+      <c r="AH24" s="12">
+        <f t="shared" si="76"/>
+        <v>0.27566380978227562</v>
+      </c>
+      <c r="AI24" s="12">
+        <f t="shared" si="76"/>
+        <v>0.91845650850727867</v>
+      </c>
+      <c r="AJ24" s="12">
+        <f t="shared" si="76"/>
+        <v>0.89774981474675652</v>
+      </c>
+      <c r="AK24" s="12">
+        <f t="shared" si="76"/>
+        <v>0.78037702384533203</v>
+      </c>
+      <c r="AL24" s="12">
+        <f>AL10/AL6</f>
+        <v>0.18834026954977687</v>
+      </c>
+      <c r="AM24" s="12">
+        <f>AM10/AM6</f>
+        <v>0.1655545609895028</v>
+      </c>
+      <c r="AN24" s="12">
+        <f>AN10/AN6</f>
+        <v>0.2102359208523592</v>
+      </c>
+      <c r="AO24" s="12">
+        <f>AO10/AO6</f>
+        <v>0.25279155751258753</v>
+      </c>
+      <c r="AP24" s="12">
+        <f>AP10/AP6</f>
+        <v>0.25598438535759005</v>
+      </c>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
       <c r="AT24" s="12"/>
-      <c r="AU24" s="2"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
-    </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="2"/>
-      <c r="AQ25" s="2"/>
-      <c r="AR25" s="2"/>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="2"/>
-      <c r="AU25" s="2"/>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
-    </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE26" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK26" s="5"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+      <c r="BA24" s="12"/>
+      <c r="BB24" s="12"/>
+      <c r="BC24" s="12"/>
+      <c r="BD24" s="12"/>
+      <c r="BE24" s="12"/>
+      <c r="BF24" s="12"/>
+      <c r="BG24" s="12"/>
+      <c r="BH24" s="12"/>
+      <c r="BI24" s="12"/>
+      <c r="BJ24" s="12"/>
+      <c r="BK24" s="12"/>
+      <c r="BL24" s="12"/>
+      <c r="BM24" s="12"/>
+      <c r="BN24" s="12"/>
+      <c r="BO24" s="12"/>
+      <c r="BP24" s="12"/>
+      <c r="BQ24" s="12"/>
+      <c r="BR24" s="12"/>
+      <c r="BS24" s="12"/>
+      <c r="BT24" s="12"/>
+      <c r="BU24" s="12"/>
+    </row>
+    <row r="25" spans="1:146" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12">
+        <f>AG19/AF19-1</f>
+        <v>-0.75955779251239308</v>
+      </c>
+      <c r="AH25" s="12">
+        <f t="shared" ref="AH25:AP25" si="77">AH19/AG19-1</f>
+        <v>2.1199302306942815</v>
+      </c>
+      <c r="AI25" s="12">
+        <f>AI19/AH19-1</f>
+        <v>-6.6291705678157715</v>
+      </c>
+      <c r="AJ25" s="12">
+        <f t="shared" si="77"/>
+        <v>0.93215472253929499</v>
+      </c>
+      <c r="AK25" s="12">
+        <f t="shared" si="77"/>
+        <v>-9.8411224479644233E-3</v>
+      </c>
+      <c r="AL25" s="12">
+        <f t="shared" si="77"/>
+        <v>-9.3045606352731483</v>
+      </c>
+      <c r="AM25" s="12">
+        <f t="shared" si="77"/>
+        <v>-0.97464061672206048</v>
+      </c>
+      <c r="AN25" s="12">
+        <f t="shared" si="77"/>
+        <v>-2.4664679582712372</v>
+      </c>
+      <c r="AO25" s="12">
+        <f t="shared" si="77"/>
+        <v>4.571138211382114</v>
+      </c>
+      <c r="AP25" s="12">
+        <f t="shared" si="77"/>
+        <v>1.4056913535206128</v>
+      </c>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+      <c r="AY25" s="12"/>
+      <c r="AZ25" s="12"/>
+      <c r="BA25" s="12"/>
+      <c r="BB25" s="12"/>
+      <c r="BC25" s="12"/>
+      <c r="BD25" s="12"/>
+      <c r="BE25" s="12"/>
+      <c r="BF25" s="12"/>
+      <c r="BG25" s="12"/>
+      <c r="BH25" s="12"/>
+      <c r="BI25" s="12"/>
+      <c r="BJ25" s="12"/>
+      <c r="BK25" s="12"/>
+      <c r="BL25" s="12"/>
+      <c r="BM25" s="12"/>
+      <c r="BN25" s="12"/>
+      <c r="BO25" s="12"/>
+      <c r="BP25" s="12"/>
+      <c r="BQ25" s="12"/>
+      <c r="BR25" s="12"/>
+      <c r="BS25" s="12"/>
+      <c r="BT25" s="12"/>
+      <c r="BU25" s="12"/>
+    </row>
+    <row r="26" spans="1:146" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
@@ -4187,182 +4831,118 @@
       <c r="AQ26" s="2"/>
       <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
-      <c r="AT26" s="5"/>
+      <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
       <c r="AX26" s="2"/>
       <c r="AY26" s="2"/>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="14">
-        <v>14163</v>
-      </c>
-      <c r="E27" s="14">
-        <v>14517</v>
-      </c>
-      <c r="F27" s="14">
-        <v>16318</v>
-      </c>
-      <c r="G27" s="14">
-        <v>17933</v>
-      </c>
-      <c r="H27" s="14">
-        <v>15390</v>
-      </c>
-      <c r="I27" s="14">
-        <v>6326</v>
-      </c>
-      <c r="J27" s="14">
-        <v>16992</v>
-      </c>
-      <c r="K27" s="14">
-        <v>16097</v>
-      </c>
-      <c r="L27" s="14">
-        <v>0</v>
-      </c>
-      <c r="M27" s="14">
-        <v>2340</v>
-      </c>
-      <c r="N27" s="14">
-        <v>8941</v>
-      </c>
-      <c r="O27" s="14">
-        <v>13109</v>
-      </c>
-      <c r="P27" s="14">
-        <v>14218</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>16411</v>
-      </c>
-      <c r="R27" s="14">
-        <v>19935</v>
-      </c>
-      <c r="S27" s="14">
-        <v>20613</v>
-      </c>
-      <c r="T27" s="14">
-        <v>19437</v>
-      </c>
-      <c r="V27" s="2">
-        <f>AVERAGE(D27:T27)</f>
-        <v>13690.588235294117</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>99</v>
+    <row r="27" spans="1:146" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE27" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="AK27" s="5"/>
       <c r="AL27" s="2"/>
-      <c r="AM27" s="2">
-        <f>SUM(D27:G27)</f>
-        <v>62931</v>
-      </c>
-      <c r="AN27" s="2">
-        <f>SUM(H27:K27)</f>
-        <v>54805</v>
-      </c>
-      <c r="AO27" s="2">
-        <f>SUM(L27:O27)</f>
-        <v>24390</v>
-      </c>
-      <c r="AP27" s="2">
-        <f>SUM(P27:S27)</f>
-        <v>71177</v>
-      </c>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
       <c r="AS27" s="2"/>
-      <c r="AT27" s="2"/>
+      <c r="AT27" s="5"/>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
       <c r="AX27" s="2"/>
       <c r="AY27" s="2"/>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:146" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="14">
-        <v>62975</v>
+        <v>14163</v>
       </c>
       <c r="E28" s="14">
-        <v>72531</v>
+        <v>14517</v>
       </c>
       <c r="F28" s="14">
-        <v>79837</v>
+        <v>16318</v>
       </c>
       <c r="G28" s="14">
-        <v>86958</v>
+        <v>17933</v>
       </c>
       <c r="H28" s="14">
-        <v>87282</v>
+        <v>15390</v>
       </c>
       <c r="I28" s="14">
-        <v>75946</v>
+        <v>6326</v>
       </c>
       <c r="J28" s="14">
-        <v>128044</v>
+        <v>16992</v>
       </c>
       <c r="K28" s="14">
-        <v>163660</v>
+        <v>16097</v>
       </c>
       <c r="L28" s="14">
-        <v>180338</v>
+        <v>0</v>
       </c>
       <c r="M28" s="14">
-        <v>204081</v>
+        <v>2340</v>
       </c>
       <c r="N28" s="14">
-        <v>228882</v>
+        <v>8941</v>
       </c>
       <c r="O28" s="14">
-        <v>292731</v>
+        <v>13109</v>
       </c>
       <c r="P28" s="14">
-        <v>291189</v>
+        <v>14218</v>
       </c>
       <c r="Q28" s="14">
-        <v>242169</v>
+        <v>16411</v>
       </c>
       <c r="R28" s="14">
-        <v>345988</v>
+        <v>19935</v>
       </c>
       <c r="S28" s="14">
-        <v>419088</v>
+        <v>20613</v>
       </c>
       <c r="T28" s="14">
-        <v>421371</v>
+        <v>19437</v>
       </c>
       <c r="V28" s="2">
         <f>AVERAGE(D28:T28)</f>
-        <v>199004.11764705883</v>
+        <v>13690.588235294117</v>
       </c>
       <c r="AE28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK28" s="5"/>
       <c r="AL28" s="2"/>
       <c r="AM28" s="2">
         <f>SUM(D28:G28)</f>
-        <v>302301</v>
+        <v>62931</v>
       </c>
       <c r="AN28" s="2">
         <f>SUM(H28:K28)</f>
-        <v>454932</v>
+        <v>54805</v>
       </c>
       <c r="AO28" s="2">
         <f>SUM(L28:O28)</f>
-        <v>906032</v>
+        <v>24390</v>
       </c>
       <c r="AP28" s="2">
         <f>SUM(P28:S28)</f>
-        <v>1298434</v>
+        <v>71177</v>
       </c>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
@@ -4374,103 +4954,85 @@
       <c r="AX28" s="2"/>
       <c r="AY28" s="2"/>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="15">
-        <f>D27+D28</f>
-        <v>77138</v>
-      </c>
-      <c r="E29" s="15">
-        <f t="shared" ref="E29:T29" si="70">E27+E28</f>
-        <v>87048</v>
-      </c>
-      <c r="F29" s="15">
-        <f t="shared" si="70"/>
-        <v>96155</v>
-      </c>
-      <c r="G29" s="15">
-        <f t="shared" si="70"/>
-        <v>104891</v>
-      </c>
-      <c r="H29" s="15">
-        <f t="shared" si="70"/>
-        <v>102672</v>
-      </c>
-      <c r="I29" s="15">
-        <f t="shared" si="70"/>
-        <v>82272</v>
-      </c>
-      <c r="J29" s="15">
-        <f t="shared" si="70"/>
-        <v>145036</v>
-      </c>
-      <c r="K29" s="15">
-        <f t="shared" si="70"/>
-        <v>179757</v>
-      </c>
-      <c r="L29" s="15">
-        <f t="shared" si="70"/>
+    <row r="29" spans="1:146" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="14">
+        <v>62975</v>
+      </c>
+      <c r="E29" s="14">
+        <v>72531</v>
+      </c>
+      <c r="F29" s="14">
+        <v>79837</v>
+      </c>
+      <c r="G29" s="14">
+        <v>86958</v>
+      </c>
+      <c r="H29" s="14">
+        <v>87282</v>
+      </c>
+      <c r="I29" s="14">
+        <v>75946</v>
+      </c>
+      <c r="J29" s="14">
+        <v>128044</v>
+      </c>
+      <c r="K29" s="14">
+        <v>163660</v>
+      </c>
+      <c r="L29" s="14">
         <v>180338</v>
       </c>
-      <c r="M29" s="15">
-        <f t="shared" si="70"/>
-        <v>206421</v>
-      </c>
-      <c r="N29" s="15">
-        <f t="shared" si="70"/>
-        <v>237823</v>
-      </c>
-      <c r="O29" s="15">
-        <f t="shared" si="70"/>
-        <v>305840</v>
-      </c>
-      <c r="P29" s="15">
-        <f t="shared" si="70"/>
-        <v>305407</v>
-      </c>
-      <c r="Q29" s="15">
-        <f t="shared" si="70"/>
-        <v>258580</v>
-      </c>
-      <c r="R29" s="15">
-        <f t="shared" si="70"/>
-        <v>365923</v>
-      </c>
-      <c r="S29" s="15">
-        <f t="shared" si="70"/>
-        <v>439701</v>
-      </c>
-      <c r="T29" s="15">
-        <f t="shared" si="70"/>
-        <v>440808</v>
-      </c>
-      <c r="U29" s="5"/>
+      <c r="M29" s="14">
+        <v>204081</v>
+      </c>
+      <c r="N29" s="14">
+        <v>228882</v>
+      </c>
+      <c r="O29" s="14">
+        <v>292731</v>
+      </c>
+      <c r="P29" s="14">
+        <v>291189</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>242169</v>
+      </c>
+      <c r="R29" s="14">
+        <v>345988</v>
+      </c>
+      <c r="S29" s="14">
+        <v>419088</v>
+      </c>
+      <c r="T29" s="14">
+        <v>421371</v>
+      </c>
       <c r="V29" s="2">
         <f>AVERAGE(D29:T29)</f>
-        <v>212694.70588235295</v>
-      </c>
-      <c r="AE29" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>199004.11764705883</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK29" s="5"/>
       <c r="AL29" s="2"/>
       <c r="AM29" s="2">
         <f>SUM(D29:G29)</f>
-        <v>365232</v>
+        <v>302301</v>
       </c>
       <c r="AN29" s="2">
         <f>SUM(H29:K29)</f>
-        <v>509737</v>
+        <v>454932</v>
       </c>
       <c r="AO29" s="2">
         <f>SUM(L29:O29)</f>
-        <v>930422</v>
+        <v>906032</v>
       </c>
       <c r="AP29" s="2">
         <f>SUM(P29:S29)</f>
-        <v>1369611</v>
+        <v>1298434</v>
       </c>
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
@@ -4482,80 +5044,137 @@
       <c r="AX29" s="2"/>
       <c r="AY29" s="2"/>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="U30" s="11"/>
+    <row r="30" spans="1:146" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="15">
+        <f>D28+D29</f>
+        <v>77138</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" ref="E30:T30" si="78">E28+E29</f>
+        <v>87048</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="78"/>
+        <v>96155</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="78"/>
+        <v>104891</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="78"/>
+        <v>102672</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="78"/>
+        <v>82272</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="78"/>
+        <v>145036</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="78"/>
+        <v>179757</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="78"/>
+        <v>180338</v>
+      </c>
+      <c r="M30" s="15">
+        <f t="shared" si="78"/>
+        <v>206421</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="78"/>
+        <v>237823</v>
+      </c>
+      <c r="O30" s="15">
+        <f t="shared" si="78"/>
+        <v>305840</v>
+      </c>
+      <c r="P30" s="15">
+        <f t="shared" si="78"/>
+        <v>305407</v>
+      </c>
+      <c r="Q30" s="15">
+        <f t="shared" si="78"/>
+        <v>258580</v>
+      </c>
+      <c r="R30" s="15">
+        <f t="shared" si="78"/>
+        <v>365923</v>
+      </c>
+      <c r="S30" s="15">
+        <f t="shared" si="78"/>
+        <v>439701</v>
+      </c>
+      <c r="T30" s="15">
+        <f t="shared" si="78"/>
+        <v>440808</v>
+      </c>
+      <c r="U30" s="5"/>
+      <c r="V30" s="2">
+        <f>AVERAGE(D30:T30)</f>
+        <v>212694.70588235295</v>
+      </c>
+      <c r="AE30" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="AL30" s="2"/>
-      <c r="AM30" s="2"/>
-      <c r="AN30" s="2"/>
-      <c r="AO30" s="2"/>
-      <c r="AP30" s="2"/>
+      <c r="AM30" s="2">
+        <f>SUM(D30:G30)</f>
+        <v>365232</v>
+      </c>
+      <c r="AN30" s="2">
+        <f>SUM(H30:K30)</f>
+        <v>509737</v>
+      </c>
+      <c r="AO30" s="2">
+        <f>SUM(L30:O30)</f>
+        <v>930422</v>
+      </c>
+      <c r="AP30" s="2">
+        <f>SUM(P30:S30)</f>
+        <v>1369611</v>
+      </c>
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
       <c r="AY30" s="2"/>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="11"/>
-      <c r="AH31" s="11"/>
-      <c r="AI31" s="11"/>
-      <c r="AJ31" s="11"/>
-      <c r="AK31" s="11"/>
+    <row r="31" spans="1:146" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="2"/>
+      <c r="AE31" s="5"/>
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" s="2"/>
@@ -4564,346 +5183,260 @@
       <c r="AQ31" s="2"/>
       <c r="AR31" s="2"/>
       <c r="AS31" s="2"/>
-      <c r="AT31" s="11"/>
+      <c r="AT31" s="2"/>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
       <c r="AX31" s="2"/>
       <c r="AY31" s="2"/>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="14">
-        <v>12091</v>
-      </c>
-      <c r="E32" s="14">
-        <v>17722</v>
-      </c>
-      <c r="F32" s="14">
-        <v>17483</v>
-      </c>
-      <c r="G32" s="14">
-        <v>19475</v>
-      </c>
-      <c r="H32" s="14">
-        <v>12230</v>
-      </c>
-      <c r="I32" s="14">
-        <v>10600</v>
-      </c>
-      <c r="J32" s="14">
-        <v>15200</v>
-      </c>
-      <c r="K32" s="14">
-        <v>18920</v>
-      </c>
-      <c r="L32" s="14">
-        <v>2020</v>
-      </c>
-      <c r="M32" s="14">
-        <v>1890</v>
-      </c>
-      <c r="N32" s="14">
-        <v>9275</v>
-      </c>
-      <c r="O32" s="14">
-        <v>11750</v>
-      </c>
-      <c r="P32" s="14">
-        <v>14724</v>
-      </c>
-      <c r="Q32" s="14">
-        <v>16162</v>
-      </c>
-      <c r="R32" s="14">
-        <v>18672</v>
-      </c>
-      <c r="S32" s="14">
-        <v>17147</v>
-      </c>
-      <c r="T32" s="14">
-        <v>10695</v>
-      </c>
-      <c r="U32" s="14"/>
-      <c r="V32" s="2">
-        <f>AVERAGE(D32:T32)</f>
-        <v>13297.411764705883</v>
-      </c>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
+    <row r="32" spans="1:146" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="2"/>
       <c r="AE32" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="11"/>
-      <c r="AI32" s="11"/>
-      <c r="AJ32" s="11"/>
-      <c r="AK32" s="11"/>
-      <c r="AL32" s="2"/>
-      <c r="AM32" s="2">
-        <f>SUM(D32:G32)</f>
-        <v>66771</v>
-      </c>
-      <c r="AN32" s="2">
-        <f>SUM(H32:K32)</f>
-        <v>56950</v>
-      </c>
-      <c r="AO32" s="2">
-        <f>SUM(L32:O32)</f>
-        <v>24935</v>
-      </c>
-      <c r="AP32" s="2">
-        <f>SUM(P32:S32)</f>
-        <v>66705</v>
-      </c>
-      <c r="AQ32" s="2"/>
-      <c r="AR32" s="2"/>
-      <c r="AS32" s="2"/>
-      <c r="AT32" s="2"/>
-      <c r="AU32" s="2"/>
-      <c r="AV32" s="2"/>
-      <c r="AW32" s="2"/>
-      <c r="AX32" s="2"/>
-      <c r="AY32" s="2"/>
-    </row>
-    <row r="33" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="14">
-        <v>50928</v>
-      </c>
-      <c r="E33" s="14">
-        <v>77634</v>
-      </c>
-      <c r="F33" s="14">
-        <v>79703</v>
-      </c>
-      <c r="G33" s="14">
-        <v>92620</v>
-      </c>
-      <c r="H33" s="14">
-        <v>76266</v>
-      </c>
-      <c r="I33" s="14">
-        <v>80050</v>
-      </c>
-      <c r="J33" s="14">
-        <v>124100</v>
-      </c>
-      <c r="K33" s="14">
-        <v>161650</v>
-      </c>
-      <c r="L33" s="14">
-        <v>182780</v>
-      </c>
-      <c r="M33" s="14">
-        <v>199360</v>
-      </c>
-      <c r="N33" s="14">
-        <v>232025</v>
-      </c>
-      <c r="O33" s="14">
-        <v>296850</v>
-      </c>
-      <c r="P33" s="14">
-        <v>295324</v>
-      </c>
-      <c r="Q33" s="14">
-        <v>238533</v>
-      </c>
-      <c r="R33" s="14">
-        <v>325158</v>
-      </c>
-      <c r="S33" s="14">
-        <v>388131</v>
-      </c>
-      <c r="T33" s="14">
-        <v>412180</v>
-      </c>
-      <c r="U33" s="14"/>
-      <c r="V33" s="2">
-        <f>AVERAGE(D33:T33)</f>
-        <v>194899.5294117647</v>
-      </c>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
+        <v>112</v>
+      </c>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12" t="e">
+        <f t="shared" ref="AG32:AM32" si="79">AG28/AF28-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH32" s="12" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI32" s="12" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ32" s="12" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK32" s="12" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL32" s="12" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM32" s="12" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN32" s="12">
+        <f>AN28/AM28-1</f>
+        <v>-0.12912555020578098</v>
+      </c>
+      <c r="AO32" s="12">
+        <f t="shared" ref="AO32:AP32" si="80">AO28/AN28-1</f>
+        <v>-0.55496761244412007</v>
+      </c>
+      <c r="AP32" s="12">
+        <f t="shared" si="80"/>
+        <v>1.9182861828618285</v>
+      </c>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="12"/>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="12"/>
+      <c r="AY32" s="12"/>
+      <c r="AZ32" s="12"/>
+      <c r="BA32" s="12"/>
+      <c r="BB32" s="12"/>
+      <c r="BC32" s="12"/>
+      <c r="BD32" s="12"/>
+      <c r="BE32" s="12"/>
+      <c r="BF32" s="12"/>
+    </row>
+    <row r="33" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="2"/>
       <c r="AE33" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="11"/>
-      <c r="AI33" s="11"/>
-      <c r="AJ33" s="11"/>
-      <c r="AK33" s="11"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2">
-        <f>SUM(D33:G33)</f>
-        <v>300885</v>
-      </c>
-      <c r="AN33" s="2">
-        <f>SUM(H33:K33)</f>
-        <v>442066</v>
-      </c>
-      <c r="AO33" s="2">
-        <f>SUM(L33:O33)</f>
-        <v>911015</v>
-      </c>
-      <c r="AP33" s="2">
-        <f>SUM(P33:S33)</f>
-        <v>1247146</v>
-      </c>
-      <c r="AQ33" s="2"/>
-      <c r="AR33" s="2"/>
-      <c r="AS33" s="2"/>
-      <c r="AT33" s="2"/>
-      <c r="AU33" s="2"/>
-      <c r="AV33" s="2"/>
-      <c r="AW33" s="2"/>
-      <c r="AX33" s="2"/>
-      <c r="AY33" s="2"/>
-    </row>
-    <row r="34" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12" t="e">
+        <f t="shared" ref="AG33:AM33" si="81">AG29/AF29-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH33" s="12" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI33" s="12" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ33" s="12" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK33" s="12" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL33" s="12" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM33" s="12" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN33" s="12">
+        <f>AN29/AM29-1</f>
+        <v>0.50489743666081166</v>
+      </c>
+      <c r="AO33" s="12">
+        <f t="shared" ref="AO33:AP33" si="82">AO29/AN29-1</f>
+        <v>0.99157676312064225</v>
+      </c>
+      <c r="AP33" s="12">
+        <f t="shared" si="82"/>
+        <v>0.43309949317463392</v>
+      </c>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="12"/>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="12"/>
+      <c r="AW33" s="12"/>
+      <c r="AX33" s="12"/>
+      <c r="AY33" s="12"/>
+      <c r="AZ33" s="12"/>
+      <c r="BA33" s="12"/>
+      <c r="BB33" s="12"/>
+      <c r="BC33" s="12"/>
+      <c r="BD33" s="12"/>
+      <c r="BE33" s="12"/>
+      <c r="BF33" s="12"/>
+    </row>
+    <row r="34" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C34" s="11"/>
-      <c r="D34" s="15">
-        <f>D32+D33</f>
-        <v>63019</v>
-      </c>
-      <c r="E34" s="15">
-        <f t="shared" ref="E34" si="71">E32+E33</f>
-        <v>95356</v>
-      </c>
-      <c r="F34" s="15">
-        <f t="shared" ref="F34" si="72">F32+F33</f>
-        <v>97186</v>
-      </c>
-      <c r="G34" s="15">
-        <f t="shared" ref="G34" si="73">G32+G33</f>
-        <v>112095</v>
-      </c>
-      <c r="H34" s="15">
-        <f t="shared" ref="H34" si="74">H32+H33</f>
-        <v>88496</v>
-      </c>
-      <c r="I34" s="15">
-        <f t="shared" ref="I34" si="75">I32+I33</f>
-        <v>90650</v>
-      </c>
-      <c r="J34" s="15">
-        <f t="shared" ref="J34" si="76">J32+J33</f>
-        <v>139300</v>
-      </c>
-      <c r="K34" s="15">
-        <f t="shared" ref="K34" si="77">K32+K33</f>
-        <v>180570</v>
-      </c>
-      <c r="L34" s="15">
-        <f t="shared" ref="L34" si="78">L32+L33</f>
-        <v>184800</v>
-      </c>
-      <c r="M34" s="15">
-        <f t="shared" ref="M34" si="79">M32+M33</f>
-        <v>201250</v>
-      </c>
-      <c r="N34" s="15">
-        <f t="shared" ref="N34" si="80">N32+N33</f>
-        <v>241300</v>
-      </c>
-      <c r="O34" s="15">
-        <f t="shared" ref="O34" si="81">O32+O33</f>
-        <v>308600</v>
-      </c>
-      <c r="P34" s="15">
-        <f t="shared" ref="P34" si="82">P32+P33</f>
-        <v>310048</v>
-      </c>
-      <c r="Q34" s="15">
-        <f t="shared" ref="Q34" si="83">Q32+Q33</f>
-        <v>254695</v>
-      </c>
-      <c r="R34" s="15">
-        <f t="shared" ref="R34" si="84">R32+R33</f>
-        <v>343830</v>
-      </c>
-      <c r="S34" s="15">
-        <f t="shared" ref="S34" si="85">S32+S33</f>
-        <v>405278</v>
-      </c>
-      <c r="T34" s="15">
-        <f t="shared" ref="T34" si="86">T32+T33</f>
-        <v>422875</v>
-      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
       <c r="U34" s="11"/>
-      <c r="V34" s="2">
-        <f>AVERAGE(D34:T34)</f>
-        <v>208196.9411764706</v>
-      </c>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
       <c r="AE34" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="11"/>
-      <c r="AJ34" s="11"/>
-      <c r="AK34" s="11"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34" s="2">
-        <f>SUM(D34:G34)</f>
-        <v>367656</v>
-      </c>
-      <c r="AN34" s="2">
-        <f>SUM(H34:K34)</f>
-        <v>499016</v>
-      </c>
-      <c r="AO34" s="2">
-        <f>SUM(L34:O34)</f>
-        <v>935950</v>
-      </c>
-      <c r="AP34" s="2">
-        <f>SUM(P34:S34)</f>
-        <v>1313851</v>
-      </c>
-      <c r="AQ34" s="2"/>
-      <c r="AR34" s="2"/>
-      <c r="AS34" s="2"/>
-      <c r="AT34" s="2"/>
-      <c r="AU34" s="2"/>
-      <c r="AV34" s="2"/>
-      <c r="AW34" s="2"/>
-      <c r="AX34" s="2"/>
-      <c r="AY34" s="2"/>
-    </row>
-    <row r="35" spans="2:51" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12" t="e">
+        <f t="shared" ref="AG34:AM34" si="83">AG30/AF30-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH34" s="12" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI34" s="12" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ34" s="12" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK34" s="12" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL34" s="12" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM34" s="12" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN34" s="12">
+        <f>AN30/AM30-1</f>
+        <v>0.39565262627590125</v>
+      </c>
+      <c r="AO34" s="12">
+        <f t="shared" ref="AO34:AP34" si="84">AO30/AN30-1</f>
+        <v>0.8252981439448186</v>
+      </c>
+      <c r="AP34" s="12">
+        <f t="shared" si="84"/>
+        <v>0.47203204567389845</v>
+      </c>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+      <c r="AT34" s="12"/>
+      <c r="AU34" s="12"/>
+      <c r="AV34" s="12"/>
+      <c r="AW34" s="12"/>
+      <c r="AX34" s="12"/>
+      <c r="AY34" s="12"/>
+      <c r="AZ34" s="12"/>
+      <c r="BA34" s="12"/>
+      <c r="BB34" s="12"/>
+      <c r="BC34" s="12"/>
+      <c r="BD34" s="12"/>
+      <c r="BE34" s="12"/>
+      <c r="BF34" s="12"/>
+    </row>
+    <row r="35" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -4921,24 +5454,8 @@
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
       <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="11"/>
-      <c r="AG35" s="11"/>
-      <c r="AH35" s="11"/>
-      <c r="AI35" s="11"/>
-      <c r="AJ35" s="11"/>
-      <c r="AK35" s="11"/>
+      <c r="AE35" s="5"/>
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" s="2"/>
@@ -4947,33 +5464,35 @@
       <c r="AQ35" s="2"/>
       <c r="AR35" s="2"/>
       <c r="AS35" s="2"/>
-      <c r="AT35" s="2"/>
       <c r="AU35" s="2"/>
       <c r="AV35" s="2"/>
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
       <c r="AY35" s="2"/>
     </row>
-    <row r="36" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+    <row r="36" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
@@ -4983,7 +5502,9 @@
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
       <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
+      <c r="AE36" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF36" s="11"/>
       <c r="AG36" s="11"/>
       <c r="AH36" s="11"/>
@@ -4998,34 +5519,74 @@
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
       <c r="AS36" s="2"/>
-      <c r="AT36" s="2"/>
+      <c r="AT36" s="11"/>
       <c r="AU36" s="2"/>
       <c r="AV36" s="2"/>
       <c r="AW36" s="2"/>
       <c r="AX36" s="2"/>
       <c r="AY36" s="2"/>
     </row>
-    <row r="37" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="11"/>
+    <row r="37" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="14">
+        <v>12091</v>
+      </c>
+      <c r="E37" s="14">
+        <v>17722</v>
+      </c>
+      <c r="F37" s="14">
+        <v>17483</v>
+      </c>
+      <c r="G37" s="14">
+        <v>19475</v>
+      </c>
+      <c r="H37" s="14">
+        <v>12230</v>
+      </c>
+      <c r="I37" s="14">
+        <v>10600</v>
+      </c>
+      <c r="J37" s="14">
+        <v>15200</v>
+      </c>
+      <c r="K37" s="14">
+        <v>18920</v>
+      </c>
+      <c r="L37" s="14">
+        <v>2020</v>
+      </c>
+      <c r="M37" s="14">
+        <v>1890</v>
+      </c>
+      <c r="N37" s="14">
+        <v>9275</v>
+      </c>
+      <c r="O37" s="14">
+        <v>11750</v>
+      </c>
+      <c r="P37" s="14">
+        <v>14724</v>
+      </c>
+      <c r="Q37" s="14">
+        <v>16162</v>
+      </c>
+      <c r="R37" s="14">
+        <v>18672</v>
+      </c>
+      <c r="S37" s="14">
+        <v>17147</v>
+      </c>
+      <c r="T37" s="14">
+        <v>10695</v>
+      </c>
+      <c r="U37" s="14"/>
+      <c r="V37" s="2">
+        <f>AVERAGE(D37:T37)</f>
+        <v>13297.411764705883</v>
+      </c>
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
@@ -5034,7 +5595,9 @@
       <c r="AB37" s="11"/>
       <c r="AC37" s="11"/>
       <c r="AD37" s="11"/>
-      <c r="AE37" s="11"/>
+      <c r="AE37" t="s">
+        <v>99</v>
+      </c>
       <c r="AF37" s="11"/>
       <c r="AG37" s="11"/>
       <c r="AH37" s="11"/>
@@ -5042,10 +5605,22 @@
       <c r="AJ37" s="11"/>
       <c r="AK37" s="11"/>
       <c r="AL37" s="2"/>
-      <c r="AM37" s="2"/>
-      <c r="AN37" s="2"/>
-      <c r="AO37" s="2"/>
-      <c r="AP37" s="2"/>
+      <c r="AM37" s="2">
+        <f>SUM(D37:G37)</f>
+        <v>66771</v>
+      </c>
+      <c r="AN37" s="2">
+        <f>SUM(H37:K37)</f>
+        <v>56950</v>
+      </c>
+      <c r="AO37" s="2">
+        <f>SUM(L37:O37)</f>
+        <v>24935</v>
+      </c>
+      <c r="AP37" s="2">
+        <f>SUM(P37:S37)</f>
+        <v>66705</v>
+      </c>
       <c r="AQ37" s="2"/>
       <c r="AR37" s="2"/>
       <c r="AS37" s="2"/>
@@ -5056,27 +5631,67 @@
       <c r="AX37" s="2"/>
       <c r="AY37" s="2"/>
     </row>
-    <row r="38" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="11"/>
+    <row r="38" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="14">
+        <v>50928</v>
+      </c>
+      <c r="E38" s="14">
+        <v>77634</v>
+      </c>
+      <c r="F38" s="14">
+        <v>79703</v>
+      </c>
+      <c r="G38" s="14">
+        <v>92620</v>
+      </c>
+      <c r="H38" s="14">
+        <v>76266</v>
+      </c>
+      <c r="I38" s="14">
+        <v>80050</v>
+      </c>
+      <c r="J38" s="14">
+        <v>124100</v>
+      </c>
+      <c r="K38" s="14">
+        <v>161650</v>
+      </c>
+      <c r="L38" s="14">
+        <v>182780</v>
+      </c>
+      <c r="M38" s="14">
+        <v>199360</v>
+      </c>
+      <c r="N38" s="14">
+        <v>232025</v>
+      </c>
+      <c r="O38" s="14">
+        <v>296850</v>
+      </c>
+      <c r="P38" s="14">
+        <v>295324</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>238533</v>
+      </c>
+      <c r="R38" s="14">
+        <v>325158</v>
+      </c>
+      <c r="S38" s="14">
+        <v>388131</v>
+      </c>
+      <c r="T38" s="14">
+        <v>412180</v>
+      </c>
+      <c r="U38" s="14"/>
+      <c r="V38" s="2">
+        <f>AVERAGE(D38:T38)</f>
+        <v>194899.5294117647</v>
+      </c>
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
@@ -5085,7 +5700,9 @@
       <c r="AB38" s="11"/>
       <c r="AC38" s="11"/>
       <c r="AD38" s="11"/>
-      <c r="AE38" s="11"/>
+      <c r="AE38" t="s">
+        <v>100</v>
+      </c>
       <c r="AF38" s="11"/>
       <c r="AG38" s="11"/>
       <c r="AH38" s="11"/>
@@ -5093,10 +5710,22 @@
       <c r="AJ38" s="11"/>
       <c r="AK38" s="11"/>
       <c r="AL38" s="2"/>
-      <c r="AM38" s="2"/>
-      <c r="AN38" s="2"/>
-      <c r="AO38" s="2"/>
-      <c r="AP38" s="2"/>
+      <c r="AM38" s="2">
+        <f>SUM(D38:G38)</f>
+        <v>300885</v>
+      </c>
+      <c r="AN38" s="2">
+        <f>SUM(H38:K38)</f>
+        <v>442066</v>
+      </c>
+      <c r="AO38" s="2">
+        <f>SUM(L38:O38)</f>
+        <v>911015</v>
+      </c>
+      <c r="AP38" s="2">
+        <f>SUM(P38:S38)</f>
+        <v>1247146</v>
+      </c>
       <c r="AQ38" s="2"/>
       <c r="AR38" s="2"/>
       <c r="AS38" s="2"/>
@@ -5107,27 +5736,84 @@
       <c r="AX38" s="2"/>
       <c r="AY38" s="2"/>
     </row>
-    <row r="39" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="11"/>
+    <row r="39" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="15">
+        <f>D37+D38</f>
+        <v>63019</v>
+      </c>
+      <c r="E39" s="15">
+        <f t="shared" ref="E39" si="85">E37+E38</f>
+        <v>95356</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" ref="F39" si="86">F37+F38</f>
+        <v>97186</v>
+      </c>
+      <c r="G39" s="15">
+        <f t="shared" ref="G39" si="87">G37+G38</f>
+        <v>112095</v>
+      </c>
+      <c r="H39" s="15">
+        <f t="shared" ref="H39" si="88">H37+H38</f>
+        <v>88496</v>
+      </c>
+      <c r="I39" s="15">
+        <f t="shared" ref="I39" si="89">I37+I38</f>
+        <v>90650</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" ref="J39" si="90">J37+J38</f>
+        <v>139300</v>
+      </c>
+      <c r="K39" s="15">
+        <f t="shared" ref="K39" si="91">K37+K38</f>
+        <v>180570</v>
+      </c>
+      <c r="L39" s="15">
+        <f t="shared" ref="L39" si="92">L37+L38</f>
+        <v>184800</v>
+      </c>
+      <c r="M39" s="15">
+        <f t="shared" ref="M39" si="93">M37+M38</f>
+        <v>201250</v>
+      </c>
+      <c r="N39" s="15">
+        <f t="shared" ref="N39" si="94">N37+N38</f>
+        <v>241300</v>
+      </c>
+      <c r="O39" s="15">
+        <f t="shared" ref="O39" si="95">O37+O38</f>
+        <v>308600</v>
+      </c>
+      <c r="P39" s="15">
+        <f t="shared" ref="P39" si="96">P37+P38</f>
+        <v>310048</v>
+      </c>
+      <c r="Q39" s="15">
+        <f t="shared" ref="Q39" si="97">Q37+Q38</f>
+        <v>254695</v>
+      </c>
+      <c r="R39" s="15">
+        <f t="shared" ref="R39" si="98">R37+R38</f>
+        <v>343830</v>
+      </c>
+      <c r="S39" s="15">
+        <f t="shared" ref="S39" si="99">S37+S38</f>
+        <v>405278</v>
+      </c>
+      <c r="T39" s="15">
+        <f t="shared" ref="T39" si="100">T37+T38</f>
+        <v>422875</v>
+      </c>
+      <c r="U39" s="11"/>
+      <c r="V39" s="2">
+        <f>AVERAGE(D39:T39)</f>
+        <v>208196.9411764706</v>
+      </c>
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
@@ -5136,76 +5822,94 @@
       <c r="AB39" s="11"/>
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
-      <c r="AE39" s="11"/>
+      <c r="AE39" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="AF39" s="11"/>
       <c r="AG39" s="11"/>
       <c r="AH39" s="11"/>
       <c r="AI39" s="11"/>
       <c r="AJ39" s="11"/>
       <c r="AK39" s="11"/>
-      <c r="AL39" s="11"/>
-      <c r="AM39" s="11"/>
-      <c r="AN39" s="11"/>
-      <c r="AO39" s="11"/>
-      <c r="AP39" s="11"/>
-      <c r="AQ39" s="11"/>
-      <c r="AR39" s="11"/>
-      <c r="AS39" s="11"/>
-      <c r="AT39" s="11"/>
-      <c r="AU39" s="11"/>
-      <c r="AV39" s="11"/>
-      <c r="AW39" s="11"/>
-      <c r="AX39" s="11"/>
-    </row>
-    <row r="40" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="3"/>
-      <c r="AK40" s="3"/>
-      <c r="AL40" s="3"/>
-      <c r="AM40" s="3"/>
-      <c r="AN40" s="3"/>
-      <c r="AO40" s="3"/>
-      <c r="AP40" s="3"/>
-      <c r="AQ40" s="3"/>
-      <c r="AR40" s="3"/>
-      <c r="AS40" s="3"/>
-      <c r="AT40" s="3"/>
-      <c r="AU40" s="3"/>
-      <c r="AV40" s="3"/>
-    </row>
-    <row r="41" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2">
+        <f>SUM(D39:G39)</f>
+        <v>367656</v>
+      </c>
+      <c r="AN39" s="2">
+        <f>SUM(H39:K39)</f>
+        <v>499016</v>
+      </c>
+      <c r="AO39" s="2">
+        <f>SUM(L39:O39)</f>
+        <v>935950</v>
+      </c>
+      <c r="AP39" s="2">
+        <f>SUM(P39:S39)</f>
+        <v>1313851</v>
+      </c>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+    </row>
+    <row r="40" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+    </row>
+    <row r="41" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -5225,8 +5929,70 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
-    </row>
-    <row r="42" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="12" t="e">
+        <f t="shared" ref="AG41:AO41" si="101">AG37/AF37-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH41" s="12" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI41" s="12" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ41" s="12" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK41" s="12" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL41" s="12" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM41" s="12" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN41" s="12">
+        <f t="shared" si="101"/>
+        <v>-0.14708481226879933</v>
+      </c>
+      <c r="AO41" s="12">
+        <f t="shared" si="101"/>
+        <v>-0.56215978928884991</v>
+      </c>
+      <c r="AP41" s="12">
+        <f>AP37/AO37-1</f>
+        <v>1.6751554040505314</v>
+      </c>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
+    </row>
+    <row r="42" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -5246,8 +6012,70 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
-    </row>
-    <row r="43" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="12" t="e">
+        <f t="shared" ref="AG42:AP42" si="102">AG38/AF38-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH42" s="12" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI42" s="12" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ42" s="12" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK42" s="12" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL42" s="12" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM42" s="12" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN42" s="12">
+        <f t="shared" si="102"/>
+        <v>0.46921913687953865</v>
+      </c>
+      <c r="AO42" s="12">
+        <f t="shared" si="102"/>
+        <v>1.0608121864156033</v>
+      </c>
+      <c r="AP42" s="12">
+        <f t="shared" si="102"/>
+        <v>0.36896318940961459</v>
+      </c>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2"/>
+      <c r="AV42" s="2"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+    </row>
+    <row r="43" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -5267,8 +6095,69 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
-    </row>
-    <row r="44" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="12" t="e">
+        <f t="shared" ref="AG43:AP43" si="103">AG39/AF39-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH43" s="12" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI43" s="12" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ43" s="12" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK43" s="12" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL43" s="12" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM43" s="12" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN43" s="12">
+        <f t="shared" si="103"/>
+        <v>0.35729051069477991</v>
+      </c>
+      <c r="AO43" s="12">
+        <f t="shared" si="103"/>
+        <v>0.87559116340959009</v>
+      </c>
+      <c r="AP43" s="12">
+        <f t="shared" si="103"/>
+        <v>0.403761953095785</v>
+      </c>
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="11"/>
+      <c r="AS43" s="11"/>
+      <c r="AT43" s="11"/>
+      <c r="AU43" s="11"/>
+      <c r="AV43" s="11"/>
+      <c r="AW43" s="11"/>
+      <c r="AX43" s="11"/>
+    </row>
+    <row r="44" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -5288,8 +6177,35 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
-    </row>
-    <row r="45" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+    </row>
+    <row r="45" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -5310,7 +6226,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -5331,7 +6247,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -5352,7 +6268,7 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:58" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -5394,13 +6310,121 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
     </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="0" priority="59">
+  <conditionalFormatting sqref="A1:XFD2 A3:AA14 AD3:XFD14 A15:XFD1048576">
+    <cfRule type="expression" dxfId="0" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:U4">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:U5">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:U6">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -5412,7 +6436,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:U5">
+  <conditionalFormatting sqref="C7:U7">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -5424,7 +6448,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:U6">
+  <conditionalFormatting sqref="C8:U8">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -5436,7 +6460,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:U7">
+  <conditionalFormatting sqref="C9:U9">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -5448,7 +6472,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:U8">
+  <conditionalFormatting sqref="C10:U10">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -5460,31 +6484,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:U9">
-    <cfRule type="colorScale" priority="53">
+  <conditionalFormatting sqref="C11:U11">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:U10">
-    <cfRule type="colorScale" priority="52">
+  <conditionalFormatting sqref="C12:U12">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:U11">
+  <conditionalFormatting sqref="C13:U13">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -5496,32 +6520,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:U12">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:U13">
+  <conditionalFormatting sqref="C14:U14">
     <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:U14">
-    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5533,6 +6533,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:U15">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:U16">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:U17">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -5544,7 +6568,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:U16">
+  <conditionalFormatting sqref="C18:U18">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -5556,7 +6580,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:U17">
+  <conditionalFormatting sqref="C19:U20">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -5568,19 +6592,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:U18">
+  <conditionalFormatting sqref="C22:U22">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:U19">
+  <conditionalFormatting sqref="C23:U23">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5592,7 +6616,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:U21">
+  <conditionalFormatting sqref="C24:U24">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -5604,7 +6628,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:U22">
+  <conditionalFormatting sqref="D28:T28">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -5616,7 +6640,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:U23">
+  <conditionalFormatting sqref="D29:T29">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -5628,7 +6652,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:T27">
+  <conditionalFormatting sqref="D30:T33">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -5640,7 +6664,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:T28">
+  <conditionalFormatting sqref="D37:T37">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -5652,7 +6676,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:T29">
+  <conditionalFormatting sqref="D38:T38">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -5664,7 +6688,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:T32">
+  <conditionalFormatting sqref="D39:T39">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -5676,7 +6700,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:T33">
+  <conditionalFormatting sqref="AQ4:AX4">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -5688,7 +6712,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:T34">
+  <conditionalFormatting sqref="AR5:AY5">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -5700,28 +6724,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ4:AX4">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="AB14:AC14">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR5:AY5">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="AB3:AC13">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
